--- a/Entrega 01/largos.xlsx
+++ b/Entrega 01/largos.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0164EC-FEE6-46ED-B959-6FA89F3B45D5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDA8D59-37A6-43F0-BDBF-2EDB29FBD31C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="48">
   <si>
     <t>Dimensión bloque</t>
   </si>
@@ -462,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -710,11 +710,14 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="138">
+  <dxfs count="223">
     <dxf>
       <font>
         <color theme="0" tint="-0.499984740745262"/>
@@ -812,6 +815,66 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1327,6 +1390,136 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0" tint="-0.499984740745262"/>
       </font>
       <fill>
@@ -1422,6 +1615,666 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2374,7 +3227,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3001,8 +3854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:ER65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BQ12" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="DH6" sqref="DH6:DH55"/>
+    <sheetView topLeftCell="BJ19" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="CH58" sqref="CH58:CJ58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="61.5" x14ac:dyDescent="0.9"/>
@@ -10503,8 +11356,8 @@
         <v>14</v>
       </c>
       <c r="DK28" s="85">
-        <f>COUNTIF(BV16:BV37,Sheet1!$D$5)*Sheet1!$D$5+COUNTIF(BV16:BV37,14)*Sheet1!$D$3+COUNTIF(BV16:BV37,14.5)*Sheet1!$D$3</f>
-        <v>114.4</v>
+        <f>COUNTIF(BV16:BV36,Sheet1!$D$5)*Sheet1!$D$5+COUNTIF(BV16:BV36,14)*Sheet1!$D$3+COUNTIF(BV16:BV36,14.5)*Sheet1!$D$3</f>
+        <v>113.4</v>
       </c>
       <c r="DL28" s="85"/>
       <c r="DM28" s="32"/>
@@ -20837,224 +21690,224 @@
     <mergeCell ref="P2:R2"/>
   </mergeCells>
   <conditionalFormatting sqref="A18:BQ18 BU18:DJ18 DW24:XFD24 DU8:XFD23 DR5:XFD5 DT25:XFD29 A56:DJ56 DT59:XFD1048576 DU56:XFD58 DU30:XFD54 DT6:DT24 A57:DS1048576 A1:XFD4 A5:DP5 A19:DJ54 A8:DJ17">
-    <cfRule type="cellIs" dxfId="137" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="66" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="67" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="221" priority="67" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="68" operator="equal">
       <formula>14.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="69" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="70" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="71" operator="equal">
       <formula>1.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DO12:DS12 DM46:DS46 DK9:DP10 DK28 DK47:DS53 DK46 DO28:DQ28 DQ36:DS36 DK36:DN36 DK29:DS29 DK31:DS35 DK30:DQ30 DK56:DP56 DK54:DM54 DP54 DK55:DL55 DS54 DS56 DM11:DP11 DK11:DL12 DM8:DP8 DK7:DL8 DS8:DS11 DQ7:DR11 DK37:DS45 DK13:DS27">
-    <cfRule type="cellIs" dxfId="131" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="61" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="62" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="215" priority="62" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",DK7)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="63" operator="equal">
       <formula>14.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="64" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="65" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DU55:XFD55 A55:DJ55">
-    <cfRule type="cellIs" dxfId="126" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="55" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="56" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="210" priority="56" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",A55)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="57" operator="equal">
       <formula>14.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="58" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="59" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="60" operator="equal">
       <formula>1.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DM55 DP55 DS55">
-    <cfRule type="cellIs" dxfId="120" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="50" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="51" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="204" priority="51" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",DM55)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="52" operator="equal">
       <formula>14.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="53" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="54" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DN54:DO55">
-    <cfRule type="cellIs" dxfId="115" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="45" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="46" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="199" priority="46" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",DN54)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="47" operator="equal">
       <formula>14.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="48" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="49" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DQ54:DR55">
-    <cfRule type="cellIs" dxfId="110" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="30" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="31" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="194" priority="31" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",DQ54)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="32" operator="equal">
       <formula>14.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="33" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="34" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DQ56:DR56">
-    <cfRule type="cellIs" dxfId="105" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="35" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="36" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="189" priority="36" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",DQ56)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="37" operator="equal">
       <formula>14.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="38" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="39" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:AM7 DU6:XFD7 DI6:DJ7">
-    <cfRule type="cellIs" dxfId="100" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="24" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="25" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="184" priority="25" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",A6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="26" operator="equal">
       <formula>14.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="27" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="28" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="29" operator="equal">
       <formula>1.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DK6:DS6 DM7:DP7 DS7">
-    <cfRule type="cellIs" dxfId="94" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="19" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="20" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="178" priority="20" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",DK6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="21" operator="equal">
       <formula>14.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="22" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE6:DH7">
-    <cfRule type="cellIs" dxfId="89" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="7" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="8" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="173" priority="8" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",BE6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="9" operator="equal">
       <formula>14.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="10" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="12" operator="equal">
       <formula>1.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN6:BD7">
-    <cfRule type="cellIs" dxfId="83" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="13" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="14" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="167" priority="14" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",AN6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="15" operator="equal">
       <formula>14.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="16" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="18" operator="equal">
       <formula>1.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DT30:DT58">
-    <cfRule type="cellIs" dxfId="77" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="1" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="2" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="161" priority="2" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",DT30)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="3" operator="equal">
       <formula>14.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="4" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="6" operator="equal">
       <formula>1.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21065,10 +21918,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123CC5CF-3BD0-45D4-9459-2C74309992F4}">
-  <dimension ref="B2:EU65"/>
+  <dimension ref="B2:EU68"/>
   <sheetViews>
-    <sheetView topLeftCell="AW9" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="DH6" sqref="DH6:DH52"/>
+    <sheetView tabSelected="1" topLeftCell="Y7" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="DW44" sqref="DW44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="61.5" x14ac:dyDescent="0.9"/>
@@ -25079,6 +25932,74 @@
         <f>Sheet1!$D$5</f>
         <v>1</v>
       </c>
+      <c r="O15" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="P15" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="R15" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="S15" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="T15" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="U15" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="V15" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="W15" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="X15" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="Y15" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="Z15" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="AA15" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="AB15" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="AC15" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="AD15" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="AE15" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
       <c r="AF15" s="1">
         <f>Sheet1!$D$5</f>
         <v>1</v>
@@ -25260,6 +26181,74 @@
         <v>1</v>
       </c>
       <c r="CL15" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CM15" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CN15" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CO15" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CP15" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CQ15" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CR15" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CS15" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CT15" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CU15" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CV15" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CW15" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CX15" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CY15" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CZ15" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="DA15" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="DB15" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="DC15" s="1">
         <f>Sheet1!$D$5</f>
         <v>1</v>
       </c>
@@ -28308,8 +29297,8 @@
         <v>14.5</v>
       </c>
       <c r="DJ28" s="85">
-        <f>COUNTIF(BR16:BR37,Sheet1!$D$5)*Sheet1!$D$5+COUNTIF(BR16:BR37,14)*Sheet1!$D$3+COUNTIF(BR16:BR37,14.5)*Sheet1!$D$3</f>
-        <v>114.4</v>
+        <f>COUNTIF(CL16:CL36,Sheet1!$D$5)*Sheet1!$D$5+COUNTIF(CL16:CL36,14)*Sheet1!$D$3+COUNTIF(CL16:CL36,14.5)*Sheet1!$D$3</f>
+        <v>113.4</v>
       </c>
       <c r="DK28" s="85"/>
       <c r="DL28" s="32"/>
@@ -28784,8 +29773,8 @@
       <c r="DM30" s="66"/>
       <c r="DN30" s="65"/>
       <c r="DP30" s="83">
-        <f>COUNTIF(DG6:DG55,Sheet1!$D$5)*Sheet1!$D$5+COUNTIF(DG6:DG55,14)*Sheet1!$D$3+COUNTIF(DG6:DG55,14.5)*Sheet1!$D$3</f>
-        <v>35</v>
+        <f>COUNTIF(DH6:DH55,Sheet1!$D$5)*Sheet1!$D$5+COUNTIF(DH6:DH55,14)*Sheet1!$D$3+COUNTIF(DH6:DH55,14.5)*Sheet1!$D$3</f>
+        <v>260</v>
       </c>
       <c r="DQ30" s="84"/>
     </row>
@@ -29724,8 +30713,8 @@
       <c r="DJ34" s="66"/>
       <c r="DK34" s="65"/>
       <c r="DM34" s="83">
-        <f>COUNTIF(DC16:DC55,Sheet1!$D$5)*Sheet1!$D$5+COUNTIF(DC16:DC55,14)*Sheet1!$D$3+COUNTIF(DC16:DC55,14.5)*Sheet1!$D$3</f>
-        <v>11</v>
+        <f>COUNTIF(DD16:DD58,Sheet1!$D$5)*Sheet1!$D$5+COUNTIF(DD16:DD58,14)*Sheet1!$D$3+COUNTIF(DD16:DD58,14.5)*Sheet1!$D$3</f>
+        <v>208</v>
       </c>
       <c r="DN34" s="84"/>
       <c r="DP34" s="66"/>
@@ -30248,6 +31237,74 @@
         <f>Sheet1!$D$5</f>
         <v>1</v>
       </c>
+      <c r="O37" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="P37" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="Q37" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="R37" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="S37" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="T37" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="U37" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="V37" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="W37" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="X37" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="Y37" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="Z37" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="AA37" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="AB37" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="AC37" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="AD37" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="AE37" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
       <c r="AF37" s="1">
         <f>Sheet1!$D$5</f>
         <v>1</v>
@@ -30429,6 +31486,74 @@
         <v>1</v>
       </c>
       <c r="CL37" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CM37" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CN37" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CO37" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CP37" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CQ37" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CR37" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CS37" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CT37" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CU37" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CV37" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CW37" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CX37" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CY37" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CZ37" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="DA37" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="DB37" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="DC37" s="1">
         <f>Sheet1!$D$5</f>
         <v>1</v>
       </c>
@@ -33656,8 +34781,8 @@
         <v>14</v>
       </c>
       <c r="DJ46" s="83">
-        <f>COUNTIF(BS37:BS55,Sheet1!$D$5)*Sheet1!$D$5+COUNTIF(BS37:BS55,14)*Sheet1!$D$3+COUNTIF(BS37:BS55,14.5)*Sheet1!$D$3</f>
-        <v>12</v>
+        <f>COUNTIF(DB37:DB55,Sheet1!$D$5)*Sheet1!$D$5+COUNTIF(DB37:DB55,14)*Sheet1!$D$3+COUNTIF(DB37:DB55,14.5)*Sheet1!$D$3</f>
+        <v>94.600000000000009</v>
       </c>
       <c r="DK46" s="84"/>
       <c r="DL46" s="81"/>
@@ -35824,306 +36949,619 @@
       <c r="DP52" s="66"/>
       <c r="DQ52" s="65"/>
     </row>
-    <row r="53" spans="2:151" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:151" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="18"/>
       <c r="D53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="L53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="M53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="O53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="P53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="Q53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="R53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="S53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="T53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="U53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="V53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="W53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="X53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="Y53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="Z53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AA53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AB53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AC53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AD53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AE53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AF53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AG53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AH53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AI53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AJ53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AK53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AL53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AM53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AN53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AO53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AP53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AQ53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AR53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AS53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AT53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AU53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AV53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AW53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AX53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AY53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AZ53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="BA53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="BB53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="BC53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="BD53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="BR53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="BS53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="BT53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="BU53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="BV53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="BW53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="BX53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="BY53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="BZ53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="CA53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="CB53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="CC53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="CD53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="CE53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="CF53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="CG53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="CH53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="CI53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="CJ53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="CK53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="CL53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="CM53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="CN53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="CO53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="CP53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="CQ53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="CR53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="CS53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="CT53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="CU53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="CV53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="CW53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="CX53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="CY53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="CZ53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="DA53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="DB53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="DC53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="DD53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="DE53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="DF53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="DG53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="DH53" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="DJ53" s="66"/>
-      <c r="DK53" s="65"/>
-      <c r="DL53" s="47"/>
+      <c r="DK53" s="89"/>
       <c r="DM53" s="66"/>
-      <c r="DN53" s="65"/>
-      <c r="DO53" s="47"/>
+      <c r="DN53" s="89"/>
       <c r="DP53" s="66"/>
-      <c r="DQ53" s="65"/>
+      <c r="DQ53" s="89"/>
     </row>
-    <row r="54" spans="2:151" ht="11.25" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="54" spans="2:151" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="18"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F54" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="G54" s="1">
+        <f>Sheet1!$D$6</f>
+        <v>1</v>
+      </c>
+      <c r="H54" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J54" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="K54" s="1">
+        <f>Sheet1!$D$6</f>
+        <v>1</v>
+      </c>
+      <c r="L54" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N54" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="O54" s="1">
+        <f>Sheet1!$D$6</f>
+        <v>1</v>
+      </c>
+      <c r="P54" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R54" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="S54" s="1">
+        <f>Sheet1!$D$6</f>
+        <v>1</v>
+      </c>
+      <c r="T54" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="U54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V54" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="W54" s="1">
+        <f>Sheet1!$D$6</f>
+        <v>1</v>
+      </c>
+      <c r="X54" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="Y54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z54" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="AA54" s="1">
+        <f>Sheet1!$D$6</f>
+        <v>1</v>
+      </c>
+      <c r="AB54" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="AC54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD54" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="AE54" s="1">
+        <f>Sheet1!$D$6</f>
+        <v>1</v>
+      </c>
+      <c r="AF54" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="AG54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH54" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="AI54" s="1">
+        <f>Sheet1!$D$6</f>
+        <v>1</v>
+      </c>
+      <c r="AJ54" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="AK54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL54" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="AM54" s="1">
+        <f>Sheet1!$D$6</f>
+        <v>1</v>
+      </c>
+      <c r="AN54" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="AO54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP54" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="AQ54" s="1">
+        <f>Sheet1!$D$6</f>
+        <v>1</v>
+      </c>
+      <c r="AR54" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="AS54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT54" s="1">
+        <f>29/2</f>
+        <v>14.5</v>
+      </c>
+      <c r="AU54" s="1">
+        <f>Sheet1!$D$6</f>
+        <v>1</v>
+      </c>
+      <c r="AV54" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="AW54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX54" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="AY54" s="1">
+        <f>Sheet1!$D$6</f>
+        <v>1</v>
+      </c>
+      <c r="AZ54" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="BA54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB54" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="BC54" s="1">
+        <f>Sheet1!$D$6</f>
+        <v>1</v>
+      </c>
+      <c r="BD54" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="BR54" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="BS54" s="1">
+        <f>Sheet1!$D$6</f>
+        <v>1</v>
+      </c>
+      <c r="BT54" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="BU54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BV54" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="BW54" s="1">
+        <f>Sheet1!$D$6</f>
+        <v>1</v>
+      </c>
+      <c r="BX54" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="BY54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BZ54" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="CA54" s="1">
+        <f>Sheet1!$D$6</f>
+        <v>1</v>
+      </c>
+      <c r="CB54" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="CC54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="CD54" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="CE54" s="1">
+        <f>Sheet1!$D$6</f>
+        <v>1</v>
+      </c>
+      <c r="CF54" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="CG54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="CH54" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="CI54" s="1">
+        <f>Sheet1!$D$6</f>
+        <v>1</v>
+      </c>
+      <c r="CJ54" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="CK54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="CL54" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="CM54" s="1">
+        <f>Sheet1!$D$6</f>
+        <v>1</v>
+      </c>
+      <c r="CN54" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="CO54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="CP54" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="CQ54" s="1">
+        <f>Sheet1!$D$6</f>
+        <v>1</v>
+      </c>
+      <c r="CR54" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="CS54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="CT54" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="CU54" s="1">
+        <f>Sheet1!$D$6</f>
+        <v>1</v>
+      </c>
+      <c r="CV54" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="CW54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="CX54" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="CY54" s="1">
+        <f>Sheet1!$D$6</f>
+        <v>1</v>
+      </c>
+      <c r="CZ54" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="DA54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="DB54" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="DC54" s="1">
+        <f>Sheet1!$D$6</f>
+        <v>1</v>
+      </c>
+      <c r="DD54" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="DE54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="DF54" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="DG54" s="1">
+        <f>Sheet1!$D$6</f>
+        <v>1</v>
+      </c>
+      <c r="DH54" s="1">
+        <v>14</v>
+      </c>
       <c r="DJ54" s="66"/>
       <c r="DK54" s="65"/>
       <c r="DL54" s="47"/>
@@ -36133,157 +37571,392 @@
       <c r="DP54" s="66"/>
       <c r="DQ54" s="65"/>
     </row>
-    <row r="55" spans="2:151" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B55" s="1"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="29">
-        <f>SUM(D50:N50)</f>
-        <v>89</v>
-      </c>
-      <c r="J55" s="29"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="28"/>
-      <c r="N55" s="35"/>
-      <c r="O55" s="46"/>
-      <c r="P55" s="45"/>
-      <c r="Q55" s="28"/>
-      <c r="R55" s="28"/>
-      <c r="S55" s="28"/>
-      <c r="T55" s="28"/>
-      <c r="U55" s="28"/>
-      <c r="V55" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="W55" s="29"/>
-      <c r="X55" s="29"/>
-      <c r="Y55" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z55" s="74">
-        <f>SUM(O50:AE50)</f>
-        <v>121</v>
-      </c>
-      <c r="AA55" s="74"/>
-      <c r="AB55" s="74"/>
-      <c r="AC55" s="28"/>
-      <c r="AD55" s="28"/>
-      <c r="AE55" s="28"/>
-      <c r="AF55" s="37"/>
-      <c r="AG55" s="28"/>
-      <c r="AH55" s="28"/>
-      <c r="AI55" s="28"/>
-      <c r="AJ55" s="28"/>
-      <c r="AK55" s="53"/>
-      <c r="AL55" s="28"/>
-      <c r="AM55" s="28"/>
-      <c r="AN55" s="28"/>
-      <c r="AO55" s="28"/>
-      <c r="AP55" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="AQ55" s="44"/>
-      <c r="AR55" s="44"/>
-      <c r="AS55" s="44"/>
-      <c r="AT55" s="44"/>
-      <c r="AU55" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV55" s="73">
-        <f>SUM(AF50:BD50)-0.5</f>
-        <v>194.5</v>
-      </c>
-      <c r="AW55" s="73"/>
-      <c r="AX55" s="73"/>
-      <c r="AY55" s="59"/>
-      <c r="AZ55" s="59"/>
-      <c r="BA55" s="53"/>
-      <c r="BB55" s="28"/>
-      <c r="BC55" s="53"/>
-      <c r="BD55" s="23"/>
-      <c r="BF55" s="28"/>
-      <c r="BG55" s="53"/>
-      <c r="BH55" s="28"/>
-      <c r="BI55" s="53"/>
-      <c r="BJ55" s="28"/>
-      <c r="BK55" s="53"/>
-      <c r="BL55" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="BM55" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="BN55" s="73">
-        <f>SUM(BE10:BQ10)</f>
-        <v>90</v>
-      </c>
-      <c r="BO55" s="73"/>
-      <c r="BP55" s="73"/>
-      <c r="BQ55" s="78"/>
-      <c r="BR55" s="46"/>
-      <c r="BS55" s="53"/>
-      <c r="BT55" s="28"/>
-      <c r="BU55" s="53"/>
-      <c r="BV55" s="28"/>
-      <c r="BW55" s="53"/>
-      <c r="BX55" s="28"/>
-      <c r="BY55" s="53"/>
-      <c r="BZ55" s="28"/>
-      <c r="CA55" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="CB55" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="CC55" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="CD55" s="73">
-        <f>SUM(BV48:CP48)-0.5</f>
-        <v>164</v>
-      </c>
-      <c r="CE55" s="73"/>
-      <c r="CF55" s="73"/>
-      <c r="CG55" s="28"/>
-      <c r="CH55" s="28"/>
-      <c r="CI55" s="53"/>
-      <c r="CJ55" s="28"/>
-      <c r="CK55" s="53"/>
-      <c r="CL55" s="36"/>
-      <c r="CM55" s="46"/>
-      <c r="CN55" s="45"/>
-      <c r="CO55" s="28"/>
-      <c r="CP55" s="28"/>
-      <c r="CQ55" s="28"/>
-      <c r="CR55" s="28"/>
-      <c r="CS55" s="28"/>
-      <c r="CT55" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="CU55" s="29"/>
-      <c r="CV55" s="29"/>
-      <c r="CW55" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="CX55" s="74">
-        <f>SUM(CM50:DC50)</f>
-        <v>121</v>
-      </c>
-      <c r="CY55" s="74"/>
-      <c r="CZ55" s="74"/>
-      <c r="DA55" s="28"/>
-      <c r="DB55" s="28"/>
-      <c r="DC55" s="36"/>
-      <c r="DD55" s="49"/>
-      <c r="DE55" s="48"/>
-      <c r="DF55" s="49"/>
-      <c r="DG55" s="48"/>
-      <c r="DH55" s="49"/>
-      <c r="DI55" s="49"/>
+    <row r="55" spans="2:151" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="18"/>
+      <c r="D55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="E55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="F55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="G55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="H55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="I55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="J55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="K55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="L55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="M55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="N55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="O55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="P55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="Q55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="R55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="S55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="T55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="U55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="V55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="W55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="X55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="Y55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="Z55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="AA55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="AB55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="AC55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="AD55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="AE55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="AF55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="AG55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="AH55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="AI55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="AJ55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="AK55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="AL55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="AM55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="AN55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="AO55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="AP55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="AQ55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="AR55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="AS55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="AT55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="AU55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="AV55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="AW55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="AX55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="AY55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="AZ55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="BA55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="BB55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="BC55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="BD55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="BR55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="BS55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="BT55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="BU55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="BV55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="BW55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="BX55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="BY55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="BZ55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CA55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CB55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CC55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CD55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CE55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CF55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CG55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CH55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CI55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CJ55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CK55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CL55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CM55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CN55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CO55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CP55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CQ55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CR55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CS55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CT55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CU55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CV55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CW55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CX55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CY55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="CZ55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="DA55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="DB55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="DC55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="DD55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="DE55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="DF55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="DG55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="DH55" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
       <c r="DJ55" s="60"/>
       <c r="DK55" s="21"/>
       <c r="DL55" s="47"/>
@@ -36292,447 +37965,488 @@
       <c r="DO55" s="47"/>
       <c r="DP55" s="60"/>
       <c r="DQ55" s="21"/>
-      <c r="DR55" s="48"/>
-      <c r="DS55" s="49"/>
-      <c r="DT55" s="48"/>
-      <c r="DU55" s="49"/>
-      <c r="DV55" s="48"/>
-      <c r="DW55" s="49"/>
-      <c r="DX55" s="48"/>
-      <c r="DY55" s="49"/>
-      <c r="DZ55" s="48"/>
-      <c r="EA55" s="49"/>
-      <c r="EB55" s="48"/>
-      <c r="EC55" s="49"/>
-      <c r="ED55" s="48"/>
-      <c r="EE55" s="49"/>
-      <c r="EF55" s="48"/>
-      <c r="EG55" s="49"/>
-      <c r="EH55" s="48"/>
-      <c r="EI55" s="49"/>
-      <c r="EJ55" s="48"/>
-      <c r="EK55" s="49"/>
-      <c r="EL55" s="48"/>
-      <c r="EM55" s="49"/>
-      <c r="EN55" s="48"/>
-      <c r="EO55" s="49"/>
-      <c r="EP55" s="48"/>
-      <c r="EQ55" s="48"/>
-      <c r="ER55" s="48"/>
-      <c r="ES55" s="48"/>
-      <c r="ET55" s="48"/>
-      <c r="EU55" s="48"/>
     </row>
-    <row r="56" spans="2:151" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.9">
-      <c r="D56" s="24"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="29"/>
-      <c r="L56" s="29"/>
-      <c r="M56" s="38"/>
-      <c r="N56" s="38"/>
-      <c r="O56" s="40"/>
-      <c r="P56" s="41"/>
-      <c r="Q56" s="41"/>
-      <c r="R56" s="38"/>
-      <c r="S56" s="38"/>
-      <c r="T56" s="38"/>
-      <c r="U56" s="38"/>
-      <c r="V56" s="29"/>
-      <c r="W56" s="29"/>
-      <c r="X56" s="29"/>
-      <c r="Y56" s="38"/>
-      <c r="Z56" s="38"/>
-      <c r="AA56" s="38"/>
-      <c r="AB56" s="38"/>
-      <c r="AC56" s="38"/>
-      <c r="AD56" s="38"/>
-      <c r="AE56" s="38"/>
-      <c r="AF56" s="40"/>
-      <c r="AG56" s="41"/>
-      <c r="AH56" s="41"/>
-      <c r="AI56" s="38"/>
-      <c r="AJ56" s="38"/>
-      <c r="AK56" s="54"/>
-      <c r="AL56" s="54"/>
-      <c r="AM56" s="54"/>
-      <c r="AN56" s="54"/>
-      <c r="AO56" s="38"/>
-      <c r="AP56" s="55"/>
-      <c r="AQ56" s="55"/>
-      <c r="AR56" s="55"/>
-      <c r="AS56" s="55"/>
-      <c r="AT56" s="55"/>
-      <c r="AU56" s="56"/>
-      <c r="AV56" s="38"/>
-      <c r="AW56" s="56"/>
-      <c r="AX56" s="38"/>
-      <c r="AY56" s="56"/>
-      <c r="AZ56" s="38"/>
-      <c r="BA56" s="56"/>
-      <c r="BB56" s="38"/>
-      <c r="BC56" s="56"/>
-      <c r="BD56" s="27"/>
-      <c r="BF56" s="38"/>
-      <c r="BG56" s="56"/>
-      <c r="BH56" s="38"/>
-      <c r="BI56" s="56"/>
-      <c r="BJ56" s="38"/>
-      <c r="BK56" s="56"/>
-      <c r="BL56" s="29"/>
-      <c r="BM56" s="56"/>
-      <c r="BN56" s="38"/>
-      <c r="BO56" s="56"/>
-      <c r="BP56" s="38"/>
-      <c r="BQ56" s="79"/>
-      <c r="BR56" s="58"/>
-      <c r="BS56" s="56"/>
-      <c r="BT56" s="38"/>
-      <c r="BU56" s="56"/>
-      <c r="BV56" s="38"/>
-      <c r="BW56" s="56"/>
-      <c r="BX56" s="38"/>
-      <c r="BY56" s="56"/>
-      <c r="BZ56" s="38"/>
-      <c r="CA56" s="42"/>
-      <c r="CB56" s="29"/>
-      <c r="CC56" s="42"/>
-      <c r="CD56" s="38"/>
-      <c r="CE56" s="38"/>
-      <c r="CF56" s="38"/>
-      <c r="CG56" s="38"/>
-      <c r="CH56" s="38"/>
-      <c r="CI56" s="56"/>
-      <c r="CJ56" s="38"/>
-      <c r="CK56" s="56"/>
-      <c r="CL56" s="57"/>
-      <c r="CM56" s="40"/>
-      <c r="CN56" s="41"/>
-      <c r="CO56" s="41"/>
-      <c r="CP56" s="38"/>
-      <c r="CQ56" s="38"/>
-      <c r="CR56" s="38"/>
-      <c r="CS56" s="38"/>
-      <c r="CT56" s="29"/>
-      <c r="CU56" s="29"/>
-      <c r="CV56" s="29"/>
-      <c r="CW56" s="38"/>
-      <c r="CX56" s="38"/>
-      <c r="CY56" s="38"/>
-      <c r="CZ56" s="38"/>
-      <c r="DA56" s="38"/>
-      <c r="DB56" s="38"/>
-      <c r="DC56" s="57"/>
-      <c r="DD56" s="50"/>
-      <c r="DE56" s="48"/>
-      <c r="DF56" s="50"/>
-      <c r="DG56" s="48"/>
-      <c r="DH56" s="50"/>
-      <c r="DI56" s="50"/>
-      <c r="DJ56" s="48"/>
-      <c r="DK56" s="48"/>
-      <c r="DL56" s="48"/>
-      <c r="DM56" s="48"/>
-      <c r="DN56" s="48"/>
-      <c r="DO56" s="48"/>
-      <c r="DP56" s="48"/>
-      <c r="DQ56" s="48"/>
-      <c r="DR56" s="48"/>
-      <c r="DS56" s="50"/>
-      <c r="DT56" s="48"/>
-      <c r="DU56" s="50"/>
-      <c r="DV56" s="48"/>
-      <c r="DW56" s="50"/>
-      <c r="DX56" s="48"/>
-      <c r="DY56" s="50"/>
-      <c r="DZ56" s="48"/>
-      <c r="EA56" s="50"/>
-      <c r="EB56" s="48"/>
-      <c r="EC56" s="50"/>
-      <c r="ED56" s="48"/>
-      <c r="EE56" s="50"/>
-      <c r="EF56" s="48"/>
-      <c r="EG56" s="50"/>
-      <c r="EH56" s="48"/>
-      <c r="EI56" s="50"/>
-      <c r="EJ56" s="48"/>
-      <c r="EK56" s="50"/>
-      <c r="EL56" s="48"/>
-      <c r="EM56" s="50"/>
-      <c r="EN56" s="48"/>
-      <c r="EO56" s="50"/>
-      <c r="EP56" s="48"/>
-      <c r="EQ56" s="48"/>
-      <c r="ER56" s="48"/>
-      <c r="ES56" s="48"/>
-      <c r="ET56" s="48"/>
-      <c r="EU56" s="48"/>
+    <row r="56" spans="2:151" ht="62.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="18"/>
+      <c r="D56" s="1">
+        <v>15</v>
+      </c>
+      <c r="E56" s="1">
+        <v>15</v>
+      </c>
+      <c r="F56" s="1">
+        <v>15</v>
+      </c>
+      <c r="G56" s="1">
+        <v>15</v>
+      </c>
+      <c r="H56" s="1">
+        <v>15</v>
+      </c>
+      <c r="I56" s="1">
+        <v>15</v>
+      </c>
+      <c r="J56" s="1">
+        <v>15</v>
+      </c>
+      <c r="K56" s="1">
+        <v>15</v>
+      </c>
+      <c r="L56" s="1">
+        <v>15</v>
+      </c>
+      <c r="M56" s="1">
+        <v>15</v>
+      </c>
+      <c r="N56" s="1">
+        <v>15</v>
+      </c>
+      <c r="O56" s="1">
+        <v>15</v>
+      </c>
+      <c r="P56" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>15</v>
+      </c>
+      <c r="R56" s="1">
+        <v>15</v>
+      </c>
+      <c r="S56" s="1">
+        <v>15</v>
+      </c>
+      <c r="T56" s="1">
+        <v>15</v>
+      </c>
+      <c r="U56" s="1">
+        <v>15</v>
+      </c>
+      <c r="V56" s="1">
+        <v>15</v>
+      </c>
+      <c r="W56" s="1">
+        <v>15</v>
+      </c>
+      <c r="X56" s="1">
+        <v>15</v>
+      </c>
+      <c r="Y56" s="1">
+        <v>15</v>
+      </c>
+      <c r="Z56" s="1">
+        <v>15</v>
+      </c>
+      <c r="AA56" s="1">
+        <v>15</v>
+      </c>
+      <c r="AB56" s="1">
+        <v>15</v>
+      </c>
+      <c r="AC56" s="1">
+        <v>15</v>
+      </c>
+      <c r="AD56" s="1">
+        <v>15</v>
+      </c>
+      <c r="AE56" s="1">
+        <v>15</v>
+      </c>
+      <c r="AF56" s="1">
+        <v>15</v>
+      </c>
+      <c r="AG56" s="1">
+        <v>15</v>
+      </c>
+      <c r="AH56" s="1">
+        <v>15</v>
+      </c>
+      <c r="AI56" s="1">
+        <v>15</v>
+      </c>
+      <c r="AJ56" s="1">
+        <v>15</v>
+      </c>
+      <c r="AK56" s="1">
+        <v>15</v>
+      </c>
+      <c r="AL56" s="1">
+        <v>15</v>
+      </c>
+      <c r="AM56" s="1">
+        <v>15</v>
+      </c>
+      <c r="AN56" s="1">
+        <v>15</v>
+      </c>
+      <c r="AO56" s="1">
+        <v>15</v>
+      </c>
+      <c r="AP56" s="1">
+        <v>15</v>
+      </c>
+      <c r="AQ56" s="1">
+        <v>15</v>
+      </c>
+      <c r="AR56" s="1">
+        <v>15</v>
+      </c>
+      <c r="AS56" s="1">
+        <v>15</v>
+      </c>
+      <c r="AT56" s="1">
+        <v>15</v>
+      </c>
+      <c r="AU56" s="1">
+        <v>15</v>
+      </c>
+      <c r="AV56" s="1">
+        <v>15</v>
+      </c>
+      <c r="AW56" s="1">
+        <v>15</v>
+      </c>
+      <c r="AX56" s="1">
+        <v>15</v>
+      </c>
+      <c r="AY56" s="1">
+        <v>15</v>
+      </c>
+      <c r="AZ56" s="1">
+        <v>15</v>
+      </c>
+      <c r="BA56" s="1">
+        <v>15</v>
+      </c>
+      <c r="BB56" s="1">
+        <v>15</v>
+      </c>
+      <c r="BC56" s="1">
+        <v>15</v>
+      </c>
+      <c r="BD56" s="1">
+        <v>15</v>
+      </c>
+      <c r="BE56" s="1">
+        <v>15</v>
+      </c>
+      <c r="BF56" s="1">
+        <v>15</v>
+      </c>
+      <c r="BG56" s="1">
+        <v>15</v>
+      </c>
+      <c r="BH56" s="1">
+        <v>15</v>
+      </c>
+      <c r="BI56" s="1">
+        <v>15</v>
+      </c>
+      <c r="BJ56" s="1">
+        <v>15</v>
+      </c>
+      <c r="BK56" s="1">
+        <v>15</v>
+      </c>
+      <c r="BL56" s="1">
+        <v>15</v>
+      </c>
+      <c r="BM56" s="1">
+        <v>15</v>
+      </c>
+      <c r="BN56" s="1">
+        <v>15</v>
+      </c>
+      <c r="BO56" s="1">
+        <v>15</v>
+      </c>
+      <c r="BP56" s="1">
+        <v>15</v>
+      </c>
+      <c r="BQ56" s="1">
+        <v>15</v>
+      </c>
+      <c r="BR56" s="1">
+        <v>15</v>
+      </c>
+      <c r="BS56" s="1">
+        <v>15</v>
+      </c>
+      <c r="BT56" s="1">
+        <v>15</v>
+      </c>
+      <c r="BU56" s="1">
+        <v>15</v>
+      </c>
+      <c r="BV56" s="1">
+        <v>15</v>
+      </c>
+      <c r="BW56" s="1">
+        <v>15</v>
+      </c>
+      <c r="BX56" s="1">
+        <v>15</v>
+      </c>
+      <c r="BY56" s="1">
+        <v>15</v>
+      </c>
+      <c r="BZ56" s="1">
+        <v>15</v>
+      </c>
+      <c r="CA56" s="1">
+        <v>15</v>
+      </c>
+      <c r="CB56" s="1">
+        <v>15</v>
+      </c>
+      <c r="CC56" s="1">
+        <v>15</v>
+      </c>
+      <c r="CD56" s="1">
+        <v>15</v>
+      </c>
+      <c r="CE56" s="1">
+        <v>15</v>
+      </c>
+      <c r="CF56" s="1">
+        <v>15</v>
+      </c>
+      <c r="CG56" s="1">
+        <v>15</v>
+      </c>
+      <c r="CH56" s="1">
+        <v>15</v>
+      </c>
+      <c r="CI56" s="1">
+        <v>15</v>
+      </c>
+      <c r="CJ56" s="1">
+        <v>15</v>
+      </c>
+      <c r="CK56" s="1">
+        <v>15</v>
+      </c>
+      <c r="CL56" s="1">
+        <v>15</v>
+      </c>
+      <c r="CM56" s="1">
+        <v>15</v>
+      </c>
+      <c r="CN56" s="1">
+        <v>15</v>
+      </c>
+      <c r="CO56" s="1">
+        <v>15</v>
+      </c>
+      <c r="CP56" s="1">
+        <v>15</v>
+      </c>
+      <c r="CQ56" s="1">
+        <v>15</v>
+      </c>
+      <c r="CR56" s="1">
+        <v>15</v>
+      </c>
+      <c r="CS56" s="1">
+        <v>15</v>
+      </c>
+      <c r="CT56" s="1">
+        <v>15</v>
+      </c>
+      <c r="CU56" s="1">
+        <v>15</v>
+      </c>
+      <c r="CV56" s="1">
+        <v>15</v>
+      </c>
+      <c r="CW56" s="1">
+        <v>15</v>
+      </c>
+      <c r="CX56" s="1">
+        <v>15</v>
+      </c>
+      <c r="CY56" s="1">
+        <v>15</v>
+      </c>
+      <c r="CZ56" s="1">
+        <v>15</v>
+      </c>
+      <c r="DA56" s="1">
+        <v>15</v>
+      </c>
+      <c r="DB56" s="1">
+        <v>15</v>
+      </c>
+      <c r="DC56" s="1">
+        <v>15</v>
+      </c>
+      <c r="DD56" s="1">
+        <v>15</v>
+      </c>
+      <c r="DE56" s="1">
+        <v>15</v>
+      </c>
+      <c r="DF56" s="1">
+        <v>15</v>
+      </c>
+      <c r="DG56" s="1">
+        <v>15</v>
+      </c>
+      <c r="DH56" s="1">
+        <v>15</v>
+      </c>
     </row>
-    <row r="57" spans="2:151" ht="11.25" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
-      <c r="M57" s="19"/>
-      <c r="N57" s="19"/>
-      <c r="O57" s="19"/>
-      <c r="P57" s="19"/>
-      <c r="Q57" s="19"/>
-      <c r="R57" s="19"/>
-      <c r="S57" s="19"/>
-      <c r="T57" s="19"/>
-      <c r="U57" s="19"/>
-      <c r="V57" s="19"/>
-      <c r="W57" s="19"/>
-      <c r="X57" s="19"/>
-      <c r="Y57" s="19"/>
-      <c r="Z57" s="19"/>
-      <c r="AA57" s="19"/>
-      <c r="AB57" s="19"/>
-      <c r="AC57" s="19"/>
-      <c r="AD57" s="19"/>
-      <c r="AE57" s="19"/>
-      <c r="AF57" s="19"/>
-      <c r="AG57" s="19"/>
-      <c r="AH57" s="19"/>
-      <c r="AI57" s="19"/>
-      <c r="AJ57" s="19"/>
-      <c r="AK57" s="19"/>
-      <c r="AL57" s="19"/>
-      <c r="AM57" s="19"/>
-      <c r="AN57" s="19"/>
-      <c r="AO57" s="19"/>
-      <c r="AP57" s="19"/>
-      <c r="AS57" s="50"/>
-      <c r="AT57" s="50"/>
-      <c r="AU57" s="50"/>
-      <c r="AV57" s="50"/>
-      <c r="AW57" s="50"/>
-      <c r="AX57" s="50"/>
-      <c r="AY57" s="50"/>
-      <c r="AZ57" s="50"/>
-      <c r="BA57" s="50"/>
-      <c r="BB57" s="50"/>
-      <c r="BC57" s="50"/>
-      <c r="BD57" s="50"/>
-      <c r="BF57" s="50"/>
-      <c r="BG57" s="50"/>
-      <c r="BH57" s="50"/>
-      <c r="BI57" s="50"/>
-      <c r="BJ57" s="50"/>
-      <c r="BK57" s="50"/>
-      <c r="BL57" s="50"/>
-      <c r="BM57" s="50"/>
-      <c r="BN57" s="50"/>
-      <c r="BO57" s="50"/>
-      <c r="BP57" s="50"/>
-      <c r="BV57" s="50"/>
-      <c r="BW57" s="50"/>
-      <c r="BX57" s="50"/>
-      <c r="BY57" s="50"/>
-      <c r="BZ57" s="50"/>
-      <c r="CA57" s="50"/>
-      <c r="CB57" s="50"/>
-      <c r="CC57" s="50"/>
-      <c r="CD57" s="50"/>
-      <c r="CE57" s="50"/>
-      <c r="CF57" s="50"/>
-      <c r="CG57" s="50"/>
-      <c r="CH57" s="50"/>
-      <c r="CI57" s="50"/>
-      <c r="CJ57" s="50"/>
-      <c r="CK57" s="50"/>
-      <c r="CL57" s="50"/>
-      <c r="CM57" s="50"/>
-      <c r="CN57" s="50"/>
-      <c r="CO57" s="50"/>
-      <c r="CP57" s="50"/>
-      <c r="CQ57" s="50"/>
-      <c r="CR57" s="50"/>
-      <c r="CS57" s="50"/>
-      <c r="CT57" s="50"/>
-      <c r="CU57" s="50"/>
-      <c r="CV57" s="50"/>
-      <c r="CW57" s="50"/>
-      <c r="CX57" s="50"/>
-      <c r="CY57" s="50"/>
-      <c r="CZ57" s="50"/>
-      <c r="DA57" s="50"/>
-      <c r="DB57" s="50"/>
-      <c r="DC57" s="50"/>
-      <c r="DD57" s="50"/>
-      <c r="DE57" s="50"/>
-      <c r="DF57" s="50"/>
-      <c r="DG57" s="50"/>
-      <c r="DH57" s="50"/>
-      <c r="DI57" s="50"/>
-      <c r="DJ57" s="52"/>
-      <c r="DK57" s="52"/>
-      <c r="DL57" s="52"/>
-      <c r="DM57" s="48"/>
-      <c r="DN57" s="48"/>
-      <c r="DO57" s="52"/>
-      <c r="DP57" s="48"/>
-      <c r="DQ57" s="48"/>
-      <c r="DR57" s="50"/>
-      <c r="DS57" s="50"/>
-      <c r="DT57" s="50"/>
-      <c r="DU57" s="50"/>
-      <c r="DV57" s="50"/>
-      <c r="DW57" s="50"/>
-      <c r="DX57" s="50"/>
-      <c r="DY57" s="50"/>
-      <c r="DZ57" s="50"/>
-      <c r="EA57" s="50"/>
-      <c r="EB57" s="50"/>
-      <c r="EC57" s="50"/>
-      <c r="ED57" s="50"/>
-      <c r="EE57" s="50"/>
-      <c r="EF57" s="50"/>
-      <c r="EG57" s="50"/>
-      <c r="EH57" s="50"/>
-      <c r="EI57" s="50"/>
-      <c r="EJ57" s="50"/>
-      <c r="EK57" s="50"/>
-      <c r="EL57" s="50"/>
-      <c r="EM57" s="50"/>
-      <c r="EN57" s="50"/>
-      <c r="EO57" s="50"/>
-      <c r="EP57" s="48"/>
-      <c r="EQ57" s="48"/>
-      <c r="ER57" s="48"/>
-      <c r="ES57" s="48"/>
-      <c r="ET57" s="48"/>
-      <c r="EU57" s="48"/>
-    </row>
-    <row r="58" spans="2:151" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
+    <row r="57" spans="2:151" ht="11.25" customHeight="1" x14ac:dyDescent="0.9"/>
+    <row r="58" spans="2:151" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B58" s="1"/>
       <c r="D58" s="21"/>
       <c r="E58" s="22"/>
       <c r="F58" s="22"/>
       <c r="G58" s="22"/>
       <c r="H58" s="22"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="28"/>
-      <c r="K58" s="28"/>
-      <c r="L58" s="28"/>
+      <c r="I58" s="29">
+        <f>SUM(D50:N50)</f>
+        <v>89</v>
+      </c>
+      <c r="J58" s="29"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="29"/>
       <c r="M58" s="28"/>
-      <c r="N58" s="28"/>
-      <c r="O58" s="28"/>
-      <c r="P58" s="28"/>
+      <c r="N58" s="35"/>
+      <c r="O58" s="46"/>
+      <c r="P58" s="45"/>
       <c r="Q58" s="28"/>
       <c r="R58" s="28"/>
       <c r="S58" s="28"/>
       <c r="T58" s="28"/>
       <c r="U58" s="28"/>
-      <c r="V58" s="28"/>
-      <c r="W58" s="42"/>
-      <c r="X58" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y58" s="28" t="s">
+      <c r="V58" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="W58" s="29"/>
+      <c r="X58" s="29"/>
+      <c r="Y58" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Z58" s="75">
-        <f>SUM(D50:AR50)</f>
-        <v>314</v>
-      </c>
-      <c r="AA58" s="75"/>
-      <c r="AB58" s="75"/>
+      <c r="Z58" s="74">
+        <f>SUM(O50:AE50)</f>
+        <v>121</v>
+      </c>
+      <c r="AA58" s="74"/>
+      <c r="AB58" s="74"/>
       <c r="AC58" s="28"/>
-      <c r="AD58" s="19"/>
+      <c r="AD58" s="28"/>
       <c r="AE58" s="28"/>
-      <c r="AF58" s="28"/>
+      <c r="AF58" s="37"/>
       <c r="AG58" s="28"/>
       <c r="AH58" s="28"/>
       <c r="AI58" s="28"/>
       <c r="AJ58" s="28"/>
-      <c r="AK58" s="28"/>
+      <c r="AK58" s="53"/>
       <c r="AL58" s="28"/>
       <c r="AM58" s="28"/>
       <c r="AN58" s="28"/>
       <c r="AO58" s="28"/>
-      <c r="AP58" s="28"/>
-      <c r="AQ58" s="28"/>
-      <c r="AR58" s="23"/>
-      <c r="AS58" s="46"/>
-      <c r="AT58" s="28"/>
-      <c r="AU58" s="28"/>
-      <c r="AV58" s="28"/>
-      <c r="AW58" s="28"/>
-      <c r="AX58" s="28"/>
-      <c r="AY58" s="28"/>
-      <c r="AZ58" s="28"/>
-      <c r="BA58" s="28"/>
+      <c r="AP58" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ58" s="44"/>
+      <c r="AR58" s="44"/>
+      <c r="AS58" s="44"/>
+      <c r="AT58" s="44"/>
+      <c r="AU58" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV58" s="73">
+        <f>SUM(AF50:BD50)-0.5</f>
+        <v>194.5</v>
+      </c>
+      <c r="AW58" s="73"/>
+      <c r="AX58" s="73"/>
+      <c r="AY58" s="59"/>
+      <c r="AZ58" s="59"/>
+      <c r="BA58" s="53"/>
       <c r="BB58" s="28"/>
-      <c r="BC58" s="28"/>
-      <c r="BD58" s="28"/>
-      <c r="BE58" s="28"/>
+      <c r="BC58" s="53"/>
+      <c r="BD58" s="23"/>
       <c r="BF58" s="28"/>
-      <c r="BG58" s="28"/>
+      <c r="BG58" s="53"/>
       <c r="BH58" s="28"/>
-      <c r="BI58" s="28"/>
+      <c r="BI58" s="53"/>
       <c r="BJ58" s="28"/>
-      <c r="BK58" s="28"/>
-      <c r="BL58" s="28"/>
-      <c r="BM58" s="28"/>
-      <c r="BN58" s="28"/>
-      <c r="BO58" s="28"/>
-      <c r="BP58" s="28"/>
-      <c r="BQ58" s="28"/>
-      <c r="BR58" s="28"/>
-      <c r="BS58" s="28"/>
+      <c r="BK58" s="53"/>
+      <c r="BL58" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="BM58" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="BN58" s="73">
+        <f>SUM(BE10:BQ10)</f>
+        <v>90</v>
+      </c>
+      <c r="BO58" s="73"/>
+      <c r="BP58" s="73"/>
+      <c r="BQ58" s="78"/>
+      <c r="BR58" s="46"/>
+      <c r="BS58" s="53"/>
       <c r="BT58" s="28"/>
-      <c r="BU58" s="28"/>
+      <c r="BU58" s="53"/>
       <c r="BV58" s="28"/>
-      <c r="BW58" s="28"/>
+      <c r="BW58" s="53"/>
       <c r="BX58" s="28"/>
-      <c r="BY58" s="28"/>
-      <c r="BZ58" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="CA58" s="33" t="s">
+      <c r="BY58" s="53"/>
+      <c r="BZ58" s="28"/>
+      <c r="CA58" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="CB58" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="CC58" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="CB58" s="73">
-        <f>SUM(AT8:DH8)</f>
-        <v>509</v>
-      </c>
-      <c r="CC58" s="73"/>
-      <c r="CD58" s="73"/>
-      <c r="CE58" s="28"/>
-      <c r="CF58" s="28"/>
+      <c r="CD58" s="73">
+        <f>SUM(BV48:CP48)-0.5</f>
+        <v>164</v>
+      </c>
+      <c r="CE58" s="73"/>
+      <c r="CF58" s="73"/>
       <c r="CG58" s="28"/>
       <c r="CH58" s="28"/>
-      <c r="CI58" s="28"/>
+      <c r="CI58" s="53"/>
       <c r="CJ58" s="28"/>
-      <c r="CK58" s="28"/>
-      <c r="CL58" s="28"/>
-      <c r="CM58" s="28"/>
-      <c r="CN58" s="28"/>
+      <c r="CK58" s="53"/>
+      <c r="CL58" s="36"/>
+      <c r="CM58" s="46"/>
+      <c r="CN58" s="45"/>
       <c r="CO58" s="28"/>
       <c r="CP58" s="28"/>
       <c r="CQ58" s="28"/>
       <c r="CR58" s="28"/>
       <c r="CS58" s="28"/>
-      <c r="CT58" s="28"/>
-      <c r="CU58" s="28"/>
-      <c r="CV58" s="28"/>
-      <c r="CW58" s="28"/>
-      <c r="CX58" s="28"/>
-      <c r="CY58" s="28"/>
-      <c r="CZ58" s="28"/>
+      <c r="CT58" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="CU58" s="29"/>
+      <c r="CV58" s="29"/>
+      <c r="CW58" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="CX58" s="74">
+        <f>SUM(CM50:DC50)</f>
+        <v>121</v>
+      </c>
+      <c r="CY58" s="74"/>
+      <c r="CZ58" s="74"/>
       <c r="DA58" s="28"/>
       <c r="DB58" s="28"/>
-      <c r="DC58" s="28"/>
-      <c r="DD58" s="28"/>
-      <c r="DE58" s="28"/>
-      <c r="DF58" s="28"/>
-      <c r="DG58" s="28"/>
-      <c r="DH58" s="36"/>
+      <c r="DC58" s="36"/>
+      <c r="DD58" s="49"/>
+      <c r="DE58" s="48"/>
+      <c r="DF58" s="49"/>
+      <c r="DG58" s="48"/>
+      <c r="DH58" s="49"/>
       <c r="DI58" s="49"/>
       <c r="DJ58" s="49"/>
       <c r="DK58" s="48"/>
@@ -36743,147 +38457,133 @@
       <c r="DP58" s="49"/>
       <c r="DQ58" s="48"/>
       <c r="DR58" s="49"/>
-      <c r="DS58" s="49"/>
+      <c r="DS58" s="48"/>
       <c r="DT58" s="49"/>
-      <c r="DU58" s="49"/>
+      <c r="DU58" s="48"/>
       <c r="DV58" s="49"/>
-      <c r="DW58" s="49"/>
+      <c r="DW58" s="48"/>
       <c r="DX58" s="49"/>
-      <c r="DY58" s="49"/>
+      <c r="DY58" s="48"/>
       <c r="DZ58" s="49"/>
-      <c r="EA58" s="49"/>
+      <c r="EA58" s="48"/>
       <c r="EB58" s="49"/>
-      <c r="EC58" s="49"/>
-      <c r="ED58" s="49"/>
-      <c r="EE58" s="49"/>
-      <c r="EF58" s="49"/>
-      <c r="EG58" s="49"/>
-      <c r="EH58" s="49"/>
-      <c r="EI58" s="49"/>
-      <c r="EJ58" s="49"/>
-      <c r="EK58" s="49"/>
-      <c r="EL58" s="49"/>
-      <c r="EM58" s="49"/>
-      <c r="EN58" s="49"/>
-      <c r="EO58" s="49"/>
-      <c r="EP58" s="48"/>
-      <c r="EQ58" s="48"/>
-      <c r="ER58" s="48"/>
-      <c r="ES58" s="48"/>
-      <c r="ET58" s="48"/>
-      <c r="EU58" s="48"/>
+      <c r="EC58" s="48"/>
+      <c r="ED58" s="48"/>
+      <c r="EE58" s="48"/>
+      <c r="EF58" s="48"/>
+      <c r="EG58" s="48"/>
+      <c r="EH58" s="48"/>
     </row>
     <row r="59" spans="2:151" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.9">
       <c r="D59" s="24"/>
       <c r="E59" s="25"/>
       <c r="F59" s="26"/>
       <c r="G59" s="26"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="41"/>
-      <c r="J59" s="38"/>
-      <c r="K59" s="38"/>
-      <c r="L59" s="41"/>
-      <c r="M59" s="41"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="38"/>
       <c r="N59" s="38"/>
-      <c r="O59" s="38"/>
+      <c r="O59" s="40"/>
       <c r="P59" s="41"/>
       <c r="Q59" s="41"/>
       <c r="R59" s="38"/>
       <c r="S59" s="38"/>
-      <c r="T59" s="41"/>
-      <c r="U59" s="41"/>
-      <c r="V59" s="38"/>
-      <c r="W59" s="35"/>
+      <c r="T59" s="38"/>
+      <c r="U59" s="38"/>
+      <c r="V59" s="29"/>
+      <c r="W59" s="29"/>
       <c r="X59" s="29"/>
-      <c r="Y59" s="43"/>
+      <c r="Y59" s="38"/>
       <c r="Z59" s="38"/>
       <c r="AA59" s="38"/>
-      <c r="AB59" s="41"/>
-      <c r="AC59" s="41"/>
+      <c r="AB59" s="38"/>
+      <c r="AC59" s="38"/>
       <c r="AD59" s="38"/>
       <c r="AE59" s="38"/>
-      <c r="AF59" s="41"/>
+      <c r="AF59" s="40"/>
       <c r="AG59" s="41"/>
-      <c r="AH59" s="38"/>
+      <c r="AH59" s="41"/>
       <c r="AI59" s="38"/>
-      <c r="AJ59" s="41"/>
-      <c r="AK59" s="41"/>
-      <c r="AL59" s="38"/>
-      <c r="AM59" s="38"/>
-      <c r="AN59" s="41"/>
-      <c r="AO59" s="41"/>
-      <c r="AP59" s="38"/>
-      <c r="AQ59" s="38"/>
-      <c r="AR59" s="27"/>
-      <c r="AS59" s="40"/>
-      <c r="AT59" s="41"/>
-      <c r="AU59" s="41"/>
-      <c r="AV59" s="41"/>
-      <c r="AW59" s="41"/>
-      <c r="AX59" s="41"/>
-      <c r="AY59" s="41"/>
-      <c r="AZ59" s="41"/>
-      <c r="BA59" s="41"/>
-      <c r="BB59" s="41"/>
-      <c r="BC59" s="41"/>
-      <c r="BD59" s="41"/>
-      <c r="BE59" s="41"/>
-      <c r="BF59" s="41"/>
-      <c r="BG59" s="41"/>
-      <c r="BH59" s="41"/>
-      <c r="BI59" s="41"/>
-      <c r="BJ59" s="41"/>
-      <c r="BK59" s="41"/>
-      <c r="BL59" s="41"/>
-      <c r="BM59" s="41"/>
-      <c r="BN59" s="41"/>
-      <c r="BO59" s="41"/>
-      <c r="BP59" s="41"/>
-      <c r="BQ59" s="41"/>
-      <c r="BR59" s="41"/>
-      <c r="BS59" s="41"/>
-      <c r="BT59" s="41"/>
-      <c r="BU59" s="41"/>
-      <c r="BV59" s="41"/>
-      <c r="BW59" s="41"/>
-      <c r="BX59" s="41"/>
-      <c r="BY59" s="41"/>
-      <c r="BZ59" s="29"/>
-      <c r="CA59" s="41"/>
-      <c r="CB59" s="41"/>
-      <c r="CC59" s="41"/>
-      <c r="CD59" s="41"/>
-      <c r="CE59" s="41"/>
-      <c r="CF59" s="41"/>
-      <c r="CG59" s="41"/>
-      <c r="CH59" s="41"/>
-      <c r="CI59" s="41"/>
-      <c r="CJ59" s="41"/>
-      <c r="CK59" s="41"/>
-      <c r="CL59" s="41"/>
-      <c r="CM59" s="41"/>
+      <c r="AJ59" s="38"/>
+      <c r="AK59" s="54"/>
+      <c r="AL59" s="54"/>
+      <c r="AM59" s="54"/>
+      <c r="AN59" s="54"/>
+      <c r="AO59" s="38"/>
+      <c r="AP59" s="55"/>
+      <c r="AQ59" s="55"/>
+      <c r="AR59" s="55"/>
+      <c r="AS59" s="55"/>
+      <c r="AT59" s="55"/>
+      <c r="AU59" s="56"/>
+      <c r="AV59" s="38"/>
+      <c r="AW59" s="56"/>
+      <c r="AX59" s="38"/>
+      <c r="AY59" s="56"/>
+      <c r="AZ59" s="38"/>
+      <c r="BA59" s="56"/>
+      <c r="BB59" s="38"/>
+      <c r="BC59" s="56"/>
+      <c r="BD59" s="27"/>
+      <c r="BF59" s="38"/>
+      <c r="BG59" s="56"/>
+      <c r="BH59" s="38"/>
+      <c r="BI59" s="56"/>
+      <c r="BJ59" s="38"/>
+      <c r="BK59" s="56"/>
+      <c r="BL59" s="29"/>
+      <c r="BM59" s="56"/>
+      <c r="BN59" s="38"/>
+      <c r="BO59" s="56"/>
+      <c r="BP59" s="38"/>
+      <c r="BQ59" s="79"/>
+      <c r="BR59" s="58"/>
+      <c r="BS59" s="56"/>
+      <c r="BT59" s="38"/>
+      <c r="BU59" s="56"/>
+      <c r="BV59" s="38"/>
+      <c r="BW59" s="56"/>
+      <c r="BX59" s="38"/>
+      <c r="BY59" s="56"/>
+      <c r="BZ59" s="38"/>
+      <c r="CA59" s="42"/>
+      <c r="CB59" s="29"/>
+      <c r="CC59" s="42"/>
+      <c r="CD59" s="38"/>
+      <c r="CE59" s="38"/>
+      <c r="CF59" s="38"/>
+      <c r="CG59" s="38"/>
+      <c r="CH59" s="38"/>
+      <c r="CI59" s="56"/>
+      <c r="CJ59" s="38"/>
+      <c r="CK59" s="56"/>
+      <c r="CL59" s="57"/>
+      <c r="CM59" s="40"/>
       <c r="CN59" s="41"/>
       <c r="CO59" s="41"/>
-      <c r="CP59" s="41"/>
-      <c r="CQ59" s="41"/>
-      <c r="CR59" s="41"/>
-      <c r="CS59" s="41"/>
-      <c r="CT59" s="41"/>
-      <c r="CU59" s="41"/>
-      <c r="CV59" s="41"/>
-      <c r="CW59" s="41"/>
-      <c r="CX59" s="41"/>
-      <c r="CY59" s="41"/>
-      <c r="CZ59" s="41"/>
-      <c r="DA59" s="41"/>
-      <c r="DB59" s="41"/>
-      <c r="DC59" s="41"/>
-      <c r="DD59" s="41"/>
-      <c r="DE59" s="41"/>
-      <c r="DF59" s="41"/>
-      <c r="DG59" s="41"/>
-      <c r="DH59" s="39"/>
-      <c r="DI59" s="51"/>
+      <c r="CP59" s="38"/>
+      <c r="CQ59" s="38"/>
+      <c r="CR59" s="38"/>
+      <c r="CS59" s="38"/>
+      <c r="CT59" s="29"/>
+      <c r="CU59" s="29"/>
+      <c r="CV59" s="29"/>
+      <c r="CW59" s="38"/>
+      <c r="CX59" s="38"/>
+      <c r="CY59" s="38"/>
+      <c r="CZ59" s="38"/>
+      <c r="DA59" s="38"/>
+      <c r="DB59" s="38"/>
+      <c r="DC59" s="57"/>
+      <c r="DD59" s="50"/>
+      <c r="DE59" s="48"/>
+      <c r="DF59" s="50"/>
+      <c r="DG59" s="48"/>
+      <c r="DH59" s="50"/>
+      <c r="DI59" s="50"/>
       <c r="DJ59" s="50"/>
       <c r="DK59" s="48"/>
       <c r="DL59" s="50"/>
@@ -36892,36 +38592,23 @@
       <c r="DO59" s="48"/>
       <c r="DP59" s="50"/>
       <c r="DQ59" s="48"/>
-      <c r="DR59" s="51"/>
-      <c r="DS59" s="51"/>
-      <c r="DT59" s="51"/>
-      <c r="DU59" s="51"/>
-      <c r="DV59" s="51"/>
-      <c r="DW59" s="51"/>
-      <c r="DX59" s="51"/>
-      <c r="DY59" s="51"/>
-      <c r="DZ59" s="51"/>
-      <c r="EA59" s="51"/>
-      <c r="EB59" s="51"/>
-      <c r="EC59" s="51"/>
-      <c r="ED59" s="51"/>
-      <c r="EE59" s="51"/>
-      <c r="EF59" s="51"/>
-      <c r="EG59" s="51"/>
-      <c r="EH59" s="51"/>
-      <c r="EI59" s="51"/>
-      <c r="EJ59" s="51"/>
-      <c r="EK59" s="51"/>
-      <c r="EL59" s="51"/>
-      <c r="EM59" s="51"/>
-      <c r="EN59" s="51"/>
-      <c r="EO59" s="51"/>
-      <c r="EP59" s="48"/>
-      <c r="EQ59" s="48"/>
-      <c r="ER59" s="48"/>
-      <c r="ES59" s="48"/>
-      <c r="ET59" s="48"/>
-      <c r="EU59" s="48"/>
+      <c r="DR59" s="50"/>
+      <c r="DS59" s="48"/>
+      <c r="DT59" s="50"/>
+      <c r="DU59" s="48"/>
+      <c r="DV59" s="50"/>
+      <c r="DW59" s="48"/>
+      <c r="DX59" s="50"/>
+      <c r="DY59" s="48"/>
+      <c r="DZ59" s="50"/>
+      <c r="EA59" s="48"/>
+      <c r="EB59" s="50"/>
+      <c r="EC59" s="48"/>
+      <c r="ED59" s="48"/>
+      <c r="EE59" s="48"/>
+      <c r="EF59" s="48"/>
+      <c r="EG59" s="48"/>
+      <c r="EH59" s="48"/>
     </row>
     <row r="60" spans="2:151" ht="11.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="I60" s="19"/>
@@ -36970,7 +38657,6 @@
       <c r="BB60" s="50"/>
       <c r="BC60" s="50"/>
       <c r="BD60" s="50"/>
-      <c r="BE60" s="50"/>
       <c r="BF60" s="50"/>
       <c r="BG60" s="50"/>
       <c r="BH60" s="50"/>
@@ -36982,11 +38668,6 @@
       <c r="BN60" s="50"/>
       <c r="BO60" s="50"/>
       <c r="BP60" s="50"/>
-      <c r="BQ60" s="50"/>
-      <c r="BR60" s="50"/>
-      <c r="BS60" s="50"/>
-      <c r="BT60" s="50"/>
-      <c r="BU60" s="50"/>
       <c r="BV60" s="50"/>
       <c r="BW60" s="50"/>
       <c r="BX60" s="50"/>
@@ -37027,14 +38708,14 @@
       <c r="DG60" s="50"/>
       <c r="DH60" s="50"/>
       <c r="DI60" s="50"/>
-      <c r="DJ60" s="50"/>
-      <c r="DK60" s="50"/>
-      <c r="DL60" s="50"/>
-      <c r="DM60" s="50"/>
-      <c r="DN60" s="50"/>
-      <c r="DO60" s="50"/>
-      <c r="DP60" s="50"/>
-      <c r="DQ60" s="50"/>
+      <c r="DJ60" s="52"/>
+      <c r="DK60" s="52"/>
+      <c r="DL60" s="52"/>
+      <c r="DM60" s="48"/>
+      <c r="DN60" s="48"/>
+      <c r="DO60" s="52"/>
+      <c r="DP60" s="48"/>
+      <c r="DQ60" s="48"/>
       <c r="DR60" s="50"/>
       <c r="DS60" s="50"/>
       <c r="DT60" s="50"/>
@@ -37066,133 +38747,139 @@
       <c r="ET60" s="48"/>
       <c r="EU60" s="48"/>
     </row>
-    <row r="61" spans="2:151" s="47" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="B61" s="63"/>
-      <c r="D61" s="67"/>
-      <c r="E61" s="68"/>
-      <c r="F61" s="68"/>
-      <c r="G61" s="68"/>
-      <c r="H61" s="68"/>
-      <c r="I61" s="68"/>
-      <c r="J61" s="68"/>
-      <c r="K61" s="68"/>
-      <c r="L61" s="68"/>
-      <c r="M61" s="68"/>
-      <c r="N61" s="68"/>
-      <c r="O61" s="68"/>
-      <c r="P61" s="68"/>
-      <c r="Q61" s="68"/>
-      <c r="R61" s="68"/>
-      <c r="S61" s="68"/>
-      <c r="T61" s="68"/>
-      <c r="U61" s="68"/>
-      <c r="V61" s="68"/>
-      <c r="W61" s="68"/>
-      <c r="X61" s="68"/>
-      <c r="Y61" s="68"/>
-      <c r="Z61" s="68"/>
-      <c r="AA61" s="68"/>
-      <c r="AB61" s="68"/>
-      <c r="AC61" s="68"/>
-      <c r="AD61" s="68"/>
-      <c r="AE61" s="68"/>
-      <c r="AF61" s="68"/>
-      <c r="AG61" s="68"/>
-      <c r="AH61" s="68"/>
-      <c r="AI61" s="68"/>
-      <c r="AJ61" s="68"/>
-      <c r="AK61" s="68"/>
-      <c r="AL61" s="68"/>
-      <c r="AM61" s="68"/>
-      <c r="AN61" s="68"/>
-      <c r="AO61" s="68"/>
-      <c r="AP61" s="68"/>
-      <c r="AQ61" s="68"/>
-      <c r="AR61" s="68"/>
-      <c r="AS61" s="68"/>
-      <c r="AT61" s="68"/>
-      <c r="AU61" s="68"/>
-      <c r="AV61" s="68"/>
-      <c r="AW61" s="68"/>
-      <c r="AX61" s="68"/>
-      <c r="AY61" s="68"/>
-      <c r="AZ61" s="68"/>
-      <c r="BA61" s="68"/>
-      <c r="BB61" s="68"/>
-      <c r="BC61" s="68"/>
-      <c r="BD61" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="BE61" s="33" t="s">
+    <row r="61" spans="2:151" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
+      <c r="D61" s="21"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="28"/>
+      <c r="N61" s="28"/>
+      <c r="O61" s="28"/>
+      <c r="P61" s="28"/>
+      <c r="Q61" s="28"/>
+      <c r="R61" s="28"/>
+      <c r="S61" s="28"/>
+      <c r="T61" s="28"/>
+      <c r="U61" s="28"/>
+      <c r="V61" s="28"/>
+      <c r="W61" s="42"/>
+      <c r="X61" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y61" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="BF61" s="73">
-        <f>SUM(D6:DH6)</f>
-        <v>824</v>
-      </c>
-      <c r="BG61" s="73"/>
-      <c r="BH61" s="73"/>
-      <c r="BI61" s="68"/>
-      <c r="BJ61" s="68"/>
-      <c r="BK61" s="68"/>
-      <c r="BL61" s="68"/>
-      <c r="BM61" s="68"/>
-      <c r="BN61" s="68"/>
-      <c r="BO61" s="68"/>
-      <c r="BP61" s="68"/>
-      <c r="BQ61" s="68"/>
-      <c r="BR61" s="68"/>
-      <c r="BS61" s="68"/>
-      <c r="BT61" s="68"/>
-      <c r="BU61" s="68"/>
-      <c r="BV61" s="68"/>
-      <c r="BW61" s="68"/>
-      <c r="BX61" s="68"/>
-      <c r="BY61" s="68"/>
-      <c r="BZ61" s="68"/>
-      <c r="CA61" s="68"/>
-      <c r="CB61" s="68"/>
-      <c r="CC61" s="68"/>
-      <c r="CD61" s="68"/>
-      <c r="CE61" s="68"/>
-      <c r="CF61" s="68"/>
-      <c r="CG61" s="68"/>
-      <c r="CH61" s="68"/>
-      <c r="CI61" s="68"/>
-      <c r="CJ61" s="68"/>
-      <c r="CK61" s="68"/>
-      <c r="CL61" s="68"/>
-      <c r="CM61" s="68"/>
-      <c r="CN61" s="68"/>
-      <c r="CO61" s="68"/>
-      <c r="CP61" s="68"/>
-      <c r="CQ61" s="68"/>
-      <c r="CR61" s="68"/>
-      <c r="CS61" s="68"/>
-      <c r="CT61" s="68"/>
-      <c r="CU61" s="68"/>
-      <c r="CV61" s="68"/>
-      <c r="CW61" s="68"/>
-      <c r="CX61" s="68"/>
-      <c r="CY61" s="68"/>
-      <c r="CZ61" s="68"/>
-      <c r="DA61" s="68"/>
-      <c r="DB61" s="68"/>
-      <c r="DC61" s="68"/>
-      <c r="DD61" s="68"/>
-      <c r="DE61" s="68"/>
-      <c r="DF61" s="68"/>
-      <c r="DG61" s="68"/>
-      <c r="DH61" s="69"/>
+      <c r="Z61" s="75">
+        <f>SUM(D50:AR50)</f>
+        <v>314</v>
+      </c>
+      <c r="AA61" s="75"/>
+      <c r="AB61" s="75"/>
+      <c r="AC61" s="28"/>
+      <c r="AD61" s="19"/>
+      <c r="AE61" s="28"/>
+      <c r="AF61" s="28"/>
+      <c r="AG61" s="28"/>
+      <c r="AH61" s="28"/>
+      <c r="AI61" s="28"/>
+      <c r="AJ61" s="28"/>
+      <c r="AK61" s="28"/>
+      <c r="AL61" s="28"/>
+      <c r="AM61" s="28"/>
+      <c r="AN61" s="28"/>
+      <c r="AO61" s="28"/>
+      <c r="AP61" s="28"/>
+      <c r="AQ61" s="28"/>
+      <c r="AR61" s="23"/>
+      <c r="AS61" s="46"/>
+      <c r="AT61" s="28"/>
+      <c r="AU61" s="28"/>
+      <c r="AV61" s="28"/>
+      <c r="AW61" s="28"/>
+      <c r="AX61" s="28"/>
+      <c r="AY61" s="28"/>
+      <c r="AZ61" s="28"/>
+      <c r="BA61" s="28"/>
+      <c r="BB61" s="28"/>
+      <c r="BC61" s="28"/>
+      <c r="BD61" s="28"/>
+      <c r="BE61" s="28"/>
+      <c r="BF61" s="28"/>
+      <c r="BG61" s="28"/>
+      <c r="BH61" s="28"/>
+      <c r="BI61" s="28"/>
+      <c r="BJ61" s="28"/>
+      <c r="BK61" s="28"/>
+      <c r="BL61" s="28"/>
+      <c r="BM61" s="28"/>
+      <c r="BN61" s="28"/>
+      <c r="BO61" s="28"/>
+      <c r="BP61" s="28"/>
+      <c r="BQ61" s="28"/>
+      <c r="BR61" s="28"/>
+      <c r="BS61" s="28"/>
+      <c r="BT61" s="28"/>
+      <c r="BU61" s="28"/>
+      <c r="BV61" s="28"/>
+      <c r="BW61" s="28"/>
+      <c r="BX61" s="28"/>
+      <c r="BY61" s="28"/>
+      <c r="BZ61" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="CA61" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="CB61" s="73">
+        <f>SUM(AT8:DH8)</f>
+        <v>509</v>
+      </c>
+      <c r="CC61" s="73"/>
+      <c r="CD61" s="73"/>
+      <c r="CE61" s="28"/>
+      <c r="CF61" s="28"/>
+      <c r="CG61" s="28"/>
+      <c r="CH61" s="28"/>
+      <c r="CI61" s="28"/>
+      <c r="CJ61" s="28"/>
+      <c r="CK61" s="28"/>
+      <c r="CL61" s="28"/>
+      <c r="CM61" s="28"/>
+      <c r="CN61" s="28"/>
+      <c r="CO61" s="28"/>
+      <c r="CP61" s="28"/>
+      <c r="CQ61" s="28"/>
+      <c r="CR61" s="28"/>
+      <c r="CS61" s="28"/>
+      <c r="CT61" s="28"/>
+      <c r="CU61" s="28"/>
+      <c r="CV61" s="28"/>
+      <c r="CW61" s="28"/>
+      <c r="CX61" s="28"/>
+      <c r="CY61" s="28"/>
+      <c r="CZ61" s="28"/>
+      <c r="DA61" s="28"/>
+      <c r="DB61" s="28"/>
+      <c r="DC61" s="28"/>
+      <c r="DD61" s="28"/>
+      <c r="DE61" s="28"/>
+      <c r="DF61" s="28"/>
+      <c r="DG61" s="28"/>
+      <c r="DH61" s="36"/>
       <c r="DI61" s="49"/>
       <c r="DJ61" s="49"/>
-      <c r="DK61" s="49"/>
+      <c r="DK61" s="48"/>
       <c r="DL61" s="49"/>
-      <c r="DM61" s="49"/>
+      <c r="DM61" s="48"/>
       <c r="DN61" s="49"/>
-      <c r="DO61" s="49"/>
+      <c r="DO61" s="48"/>
       <c r="DP61" s="49"/>
-      <c r="DQ61" s="49"/>
+      <c r="DQ61" s="48"/>
       <c r="DR61" s="49"/>
       <c r="DS61" s="49"/>
       <c r="DT61" s="49"/>
@@ -37224,126 +38911,125 @@
       <c r="ET61" s="48"/>
       <c r="EU61" s="48"/>
     </row>
-    <row r="62" spans="2:151" s="47" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.9">
-      <c r="B62" s="63"/>
-      <c r="D62" s="70"/>
-      <c r="E62" s="71"/>
-      <c r="F62" s="71"/>
-      <c r="G62" s="71"/>
-      <c r="H62" s="71"/>
-      <c r="I62" s="71"/>
-      <c r="J62" s="71"/>
-      <c r="K62" s="71"/>
-      <c r="L62" s="71"/>
-      <c r="M62" s="71"/>
-      <c r="N62" s="71"/>
-      <c r="O62" s="71"/>
-      <c r="P62" s="71"/>
-      <c r="Q62" s="71"/>
-      <c r="R62" s="71"/>
-      <c r="S62" s="71"/>
-      <c r="T62" s="71"/>
-      <c r="U62" s="71"/>
-      <c r="V62" s="71"/>
-      <c r="W62" s="71"/>
-      <c r="X62" s="71"/>
-      <c r="Y62" s="71"/>
-      <c r="Z62" s="71"/>
-      <c r="AA62" s="71"/>
-      <c r="AB62" s="71"/>
-      <c r="AC62" s="71"/>
-      <c r="AD62" s="71"/>
-      <c r="AE62" s="71"/>
-      <c r="AF62" s="71"/>
-      <c r="AG62" s="71"/>
-      <c r="AH62" s="71"/>
-      <c r="AI62" s="71"/>
-      <c r="AJ62" s="71"/>
-      <c r="AK62" s="71"/>
-      <c r="AL62" s="71"/>
-      <c r="AM62" s="71"/>
-      <c r="AN62" s="71"/>
-      <c r="AO62" s="71"/>
-      <c r="AP62" s="71"/>
-      <c r="AQ62" s="71"/>
-      <c r="AR62" s="71"/>
-      <c r="AS62" s="71"/>
-      <c r="AT62" s="71"/>
-      <c r="AU62" s="71"/>
-      <c r="AV62" s="71"/>
-      <c r="AW62" s="71"/>
-      <c r="AX62" s="71"/>
-      <c r="AY62" s="71"/>
-      <c r="AZ62" s="71"/>
-      <c r="BA62" s="71"/>
-      <c r="BB62" s="71"/>
-      <c r="BC62" s="71"/>
-      <c r="BD62" s="29"/>
-      <c r="BE62" s="71"/>
-      <c r="BF62" s="71"/>
-      <c r="BG62" s="71"/>
-      <c r="BH62" s="71"/>
-      <c r="BI62" s="71"/>
-      <c r="BJ62" s="71"/>
-      <c r="BK62" s="71"/>
-      <c r="BL62" s="71"/>
-      <c r="BM62" s="71"/>
-      <c r="BN62" s="71"/>
-      <c r="BO62" s="71"/>
-      <c r="BP62" s="71"/>
-      <c r="BQ62" s="71"/>
-      <c r="BR62" s="71"/>
-      <c r="BS62" s="71"/>
-      <c r="BT62" s="71"/>
-      <c r="BU62" s="71"/>
-      <c r="BV62" s="71"/>
-      <c r="BW62" s="71"/>
-      <c r="BX62" s="71"/>
-      <c r="BY62" s="71"/>
-      <c r="BZ62" s="71"/>
-      <c r="CA62" s="71"/>
-      <c r="CB62" s="71"/>
-      <c r="CC62" s="71"/>
-      <c r="CD62" s="71"/>
-      <c r="CE62" s="71"/>
-      <c r="CF62" s="71"/>
-      <c r="CG62" s="71"/>
-      <c r="CH62" s="71"/>
-      <c r="CI62" s="71"/>
-      <c r="CJ62" s="71"/>
-      <c r="CK62" s="71"/>
-      <c r="CL62" s="71"/>
-      <c r="CM62" s="71"/>
-      <c r="CN62" s="71"/>
-      <c r="CO62" s="71"/>
-      <c r="CP62" s="71"/>
-      <c r="CQ62" s="71"/>
-      <c r="CR62" s="71"/>
-      <c r="CS62" s="71"/>
-      <c r="CT62" s="71"/>
-      <c r="CU62" s="71"/>
-      <c r="CV62" s="71"/>
-      <c r="CW62" s="71"/>
-      <c r="CX62" s="71"/>
-      <c r="CY62" s="71"/>
-      <c r="CZ62" s="71"/>
-      <c r="DA62" s="71"/>
-      <c r="DB62" s="71"/>
-      <c r="DC62" s="71"/>
-      <c r="DD62" s="71"/>
-      <c r="DE62" s="71"/>
-      <c r="DF62" s="71"/>
-      <c r="DG62" s="71"/>
-      <c r="DH62" s="72"/>
+    <row r="62" spans="2:151" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.9">
+      <c r="D62" s="24"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="41"/>
+      <c r="J62" s="38"/>
+      <c r="K62" s="38"/>
+      <c r="L62" s="41"/>
+      <c r="M62" s="41"/>
+      <c r="N62" s="38"/>
+      <c r="O62" s="38"/>
+      <c r="P62" s="41"/>
+      <c r="Q62" s="41"/>
+      <c r="R62" s="38"/>
+      <c r="S62" s="38"/>
+      <c r="T62" s="41"/>
+      <c r="U62" s="41"/>
+      <c r="V62" s="38"/>
+      <c r="W62" s="35"/>
+      <c r="X62" s="29"/>
+      <c r="Y62" s="43"/>
+      <c r="Z62" s="38"/>
+      <c r="AA62" s="38"/>
+      <c r="AB62" s="41"/>
+      <c r="AC62" s="41"/>
+      <c r="AD62" s="38"/>
+      <c r="AE62" s="38"/>
+      <c r="AF62" s="41"/>
+      <c r="AG62" s="41"/>
+      <c r="AH62" s="38"/>
+      <c r="AI62" s="38"/>
+      <c r="AJ62" s="41"/>
+      <c r="AK62" s="41"/>
+      <c r="AL62" s="38"/>
+      <c r="AM62" s="38"/>
+      <c r="AN62" s="41"/>
+      <c r="AO62" s="41"/>
+      <c r="AP62" s="38"/>
+      <c r="AQ62" s="38"/>
+      <c r="AR62" s="27"/>
+      <c r="AS62" s="40"/>
+      <c r="AT62" s="41"/>
+      <c r="AU62" s="41"/>
+      <c r="AV62" s="41"/>
+      <c r="AW62" s="41"/>
+      <c r="AX62" s="41"/>
+      <c r="AY62" s="41"/>
+      <c r="AZ62" s="41"/>
+      <c r="BA62" s="41"/>
+      <c r="BB62" s="41"/>
+      <c r="BC62" s="41"/>
+      <c r="BD62" s="41"/>
+      <c r="BE62" s="41"/>
+      <c r="BF62" s="41"/>
+      <c r="BG62" s="41"/>
+      <c r="BH62" s="41"/>
+      <c r="BI62" s="41"/>
+      <c r="BJ62" s="41"/>
+      <c r="BK62" s="41"/>
+      <c r="BL62" s="41"/>
+      <c r="BM62" s="41"/>
+      <c r="BN62" s="41"/>
+      <c r="BO62" s="41"/>
+      <c r="BP62" s="41"/>
+      <c r="BQ62" s="41"/>
+      <c r="BR62" s="41"/>
+      <c r="BS62" s="41"/>
+      <c r="BT62" s="41"/>
+      <c r="BU62" s="41"/>
+      <c r="BV62" s="41"/>
+      <c r="BW62" s="41"/>
+      <c r="BX62" s="41"/>
+      <c r="BY62" s="41"/>
+      <c r="BZ62" s="29"/>
+      <c r="CA62" s="41"/>
+      <c r="CB62" s="41"/>
+      <c r="CC62" s="41"/>
+      <c r="CD62" s="41"/>
+      <c r="CE62" s="41"/>
+      <c r="CF62" s="41"/>
+      <c r="CG62" s="41"/>
+      <c r="CH62" s="41"/>
+      <c r="CI62" s="41"/>
+      <c r="CJ62" s="41"/>
+      <c r="CK62" s="41"/>
+      <c r="CL62" s="41"/>
+      <c r="CM62" s="41"/>
+      <c r="CN62" s="41"/>
+      <c r="CO62" s="41"/>
+      <c r="CP62" s="41"/>
+      <c r="CQ62" s="41"/>
+      <c r="CR62" s="41"/>
+      <c r="CS62" s="41"/>
+      <c r="CT62" s="41"/>
+      <c r="CU62" s="41"/>
+      <c r="CV62" s="41"/>
+      <c r="CW62" s="41"/>
+      <c r="CX62" s="41"/>
+      <c r="CY62" s="41"/>
+      <c r="CZ62" s="41"/>
+      <c r="DA62" s="41"/>
+      <c r="DB62" s="41"/>
+      <c r="DC62" s="41"/>
+      <c r="DD62" s="41"/>
+      <c r="DE62" s="41"/>
+      <c r="DF62" s="41"/>
+      <c r="DG62" s="41"/>
+      <c r="DH62" s="39"/>
       <c r="DI62" s="51"/>
-      <c r="DJ62" s="51"/>
-      <c r="DK62" s="51"/>
-      <c r="DL62" s="51"/>
-      <c r="DM62" s="51"/>
-      <c r="DN62" s="51"/>
-      <c r="DO62" s="51"/>
-      <c r="DP62" s="51"/>
-      <c r="DQ62" s="51"/>
+      <c r="DJ62" s="50"/>
+      <c r="DK62" s="48"/>
+      <c r="DL62" s="50"/>
+      <c r="DM62" s="48"/>
+      <c r="DN62" s="50"/>
+      <c r="DO62" s="48"/>
+      <c r="DP62" s="50"/>
+      <c r="DQ62" s="48"/>
       <c r="DR62" s="51"/>
       <c r="DS62" s="51"/>
       <c r="DT62" s="51"/>
@@ -37375,7 +39061,110 @@
       <c r="ET62" s="48"/>
       <c r="EU62" s="48"/>
     </row>
-    <row r="63" spans="2:151" x14ac:dyDescent="0.9">
+    <row r="63" spans="2:151" ht="11.25" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
+      <c r="O63" s="19"/>
+      <c r="P63" s="19"/>
+      <c r="Q63" s="19"/>
+      <c r="R63" s="19"/>
+      <c r="S63" s="19"/>
+      <c r="T63" s="19"/>
+      <c r="U63" s="19"/>
+      <c r="V63" s="19"/>
+      <c r="W63" s="19"/>
+      <c r="X63" s="19"/>
+      <c r="Y63" s="19"/>
+      <c r="Z63" s="19"/>
+      <c r="AA63" s="19"/>
+      <c r="AB63" s="19"/>
+      <c r="AC63" s="19"/>
+      <c r="AD63" s="19"/>
+      <c r="AE63" s="19"/>
+      <c r="AF63" s="19"/>
+      <c r="AG63" s="19"/>
+      <c r="AH63" s="19"/>
+      <c r="AI63" s="19"/>
+      <c r="AJ63" s="19"/>
+      <c r="AK63" s="19"/>
+      <c r="AL63" s="19"/>
+      <c r="AM63" s="19"/>
+      <c r="AN63" s="19"/>
+      <c r="AO63" s="19"/>
+      <c r="AP63" s="19"/>
+      <c r="AS63" s="50"/>
+      <c r="AT63" s="50"/>
+      <c r="AU63" s="50"/>
+      <c r="AV63" s="50"/>
+      <c r="AW63" s="50"/>
+      <c r="AX63" s="50"/>
+      <c r="AY63" s="50"/>
+      <c r="AZ63" s="50"/>
+      <c r="BA63" s="50"/>
+      <c r="BB63" s="50"/>
+      <c r="BC63" s="50"/>
+      <c r="BD63" s="50"/>
+      <c r="BE63" s="50"/>
+      <c r="BF63" s="50"/>
+      <c r="BG63" s="50"/>
+      <c r="BH63" s="50"/>
+      <c r="BI63" s="50"/>
+      <c r="BJ63" s="50"/>
+      <c r="BK63" s="50"/>
+      <c r="BL63" s="50"/>
+      <c r="BM63" s="50"/>
+      <c r="BN63" s="50"/>
+      <c r="BO63" s="50"/>
+      <c r="BP63" s="50"/>
+      <c r="BQ63" s="50"/>
+      <c r="BR63" s="50"/>
+      <c r="BS63" s="50"/>
+      <c r="BT63" s="50"/>
+      <c r="BU63" s="50"/>
+      <c r="BV63" s="50"/>
+      <c r="BW63" s="50"/>
+      <c r="BX63" s="50"/>
+      <c r="BY63" s="50"/>
+      <c r="BZ63" s="50"/>
+      <c r="CA63" s="50"/>
+      <c r="CB63" s="50"/>
+      <c r="CC63" s="50"/>
+      <c r="CD63" s="50"/>
+      <c r="CE63" s="50"/>
+      <c r="CF63" s="50"/>
+      <c r="CG63" s="50"/>
+      <c r="CH63" s="50"/>
+      <c r="CI63" s="50"/>
+      <c r="CJ63" s="50"/>
+      <c r="CK63" s="50"/>
+      <c r="CL63" s="50"/>
+      <c r="CM63" s="50"/>
+      <c r="CN63" s="50"/>
+      <c r="CO63" s="50"/>
+      <c r="CP63" s="50"/>
+      <c r="CQ63" s="50"/>
+      <c r="CR63" s="50"/>
+      <c r="CS63" s="50"/>
+      <c r="CT63" s="50"/>
+      <c r="CU63" s="50"/>
+      <c r="CV63" s="50"/>
+      <c r="CW63" s="50"/>
+      <c r="CX63" s="50"/>
+      <c r="CY63" s="50"/>
+      <c r="CZ63" s="50"/>
+      <c r="DA63" s="50"/>
+      <c r="DB63" s="50"/>
+      <c r="DC63" s="50"/>
+      <c r="DD63" s="50"/>
+      <c r="DE63" s="50"/>
+      <c r="DF63" s="50"/>
+      <c r="DG63" s="50"/>
+      <c r="DH63" s="50"/>
+      <c r="DI63" s="50"/>
       <c r="DJ63" s="50"/>
       <c r="DK63" s="50"/>
       <c r="DL63" s="50"/>
@@ -37384,8 +39173,156 @@
       <c r="DO63" s="50"/>
       <c r="DP63" s="50"/>
       <c r="DQ63" s="50"/>
+      <c r="DR63" s="50"/>
+      <c r="DS63" s="50"/>
+      <c r="DT63" s="50"/>
+      <c r="DU63" s="50"/>
+      <c r="DV63" s="50"/>
+      <c r="DW63" s="50"/>
+      <c r="DX63" s="50"/>
+      <c r="DY63" s="50"/>
+      <c r="DZ63" s="50"/>
+      <c r="EA63" s="50"/>
+      <c r="EB63" s="50"/>
+      <c r="EC63" s="50"/>
+      <c r="ED63" s="50"/>
+      <c r="EE63" s="50"/>
+      <c r="EF63" s="50"/>
+      <c r="EG63" s="50"/>
+      <c r="EH63" s="50"/>
+      <c r="EI63" s="50"/>
+      <c r="EJ63" s="50"/>
+      <c r="EK63" s="50"/>
+      <c r="EL63" s="50"/>
+      <c r="EM63" s="50"/>
+      <c r="EN63" s="50"/>
+      <c r="EO63" s="50"/>
+      <c r="EP63" s="48"/>
+      <c r="EQ63" s="48"/>
+      <c r="ER63" s="48"/>
+      <c r="ES63" s="48"/>
+      <c r="ET63" s="48"/>
+      <c r="EU63" s="48"/>
     </row>
-    <row r="64" spans="2:151" x14ac:dyDescent="0.9">
+    <row r="64" spans="2:151" s="47" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
+      <c r="B64" s="63"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="68"/>
+      <c r="F64" s="68"/>
+      <c r="G64" s="68"/>
+      <c r="H64" s="68"/>
+      <c r="I64" s="68"/>
+      <c r="J64" s="68"/>
+      <c r="K64" s="68"/>
+      <c r="L64" s="68"/>
+      <c r="M64" s="68"/>
+      <c r="N64" s="68"/>
+      <c r="O64" s="68"/>
+      <c r="P64" s="68"/>
+      <c r="Q64" s="68"/>
+      <c r="R64" s="68"/>
+      <c r="S64" s="68"/>
+      <c r="T64" s="68"/>
+      <c r="U64" s="68"/>
+      <c r="V64" s="68"/>
+      <c r="W64" s="68"/>
+      <c r="X64" s="68"/>
+      <c r="Y64" s="68"/>
+      <c r="Z64" s="68"/>
+      <c r="AA64" s="68"/>
+      <c r="AB64" s="68"/>
+      <c r="AC64" s="68"/>
+      <c r="AD64" s="68"/>
+      <c r="AE64" s="68"/>
+      <c r="AF64" s="68"/>
+      <c r="AG64" s="68"/>
+      <c r="AH64" s="68"/>
+      <c r="AI64" s="68"/>
+      <c r="AJ64" s="68"/>
+      <c r="AK64" s="68"/>
+      <c r="AL64" s="68"/>
+      <c r="AM64" s="68"/>
+      <c r="AN64" s="68"/>
+      <c r="AO64" s="68"/>
+      <c r="AP64" s="68"/>
+      <c r="AQ64" s="68"/>
+      <c r="AR64" s="68"/>
+      <c r="AS64" s="68"/>
+      <c r="AT64" s="68"/>
+      <c r="AU64" s="68"/>
+      <c r="AV64" s="68"/>
+      <c r="AW64" s="68"/>
+      <c r="AX64" s="68"/>
+      <c r="AY64" s="68"/>
+      <c r="AZ64" s="68"/>
+      <c r="BA64" s="68"/>
+      <c r="BB64" s="68"/>
+      <c r="BC64" s="68"/>
+      <c r="BD64" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE64" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="BF64" s="73">
+        <f>SUM(D6:DH6)</f>
+        <v>824</v>
+      </c>
+      <c r="BG64" s="73"/>
+      <c r="BH64" s="73"/>
+      <c r="BI64" s="68"/>
+      <c r="BJ64" s="68"/>
+      <c r="BK64" s="68"/>
+      <c r="BL64" s="68"/>
+      <c r="BM64" s="68"/>
+      <c r="BN64" s="68"/>
+      <c r="BO64" s="68"/>
+      <c r="BP64" s="68"/>
+      <c r="BQ64" s="68"/>
+      <c r="BR64" s="68"/>
+      <c r="BS64" s="68"/>
+      <c r="BT64" s="68"/>
+      <c r="BU64" s="68"/>
+      <c r="BV64" s="68"/>
+      <c r="BW64" s="68"/>
+      <c r="BX64" s="68"/>
+      <c r="BY64" s="68"/>
+      <c r="BZ64" s="68"/>
+      <c r="CA64" s="68"/>
+      <c r="CB64" s="68"/>
+      <c r="CC64" s="68"/>
+      <c r="CD64" s="68"/>
+      <c r="CE64" s="68"/>
+      <c r="CF64" s="68"/>
+      <c r="CG64" s="68"/>
+      <c r="CH64" s="68"/>
+      <c r="CI64" s="68"/>
+      <c r="CJ64" s="68"/>
+      <c r="CK64" s="68"/>
+      <c r="CL64" s="68"/>
+      <c r="CM64" s="68"/>
+      <c r="CN64" s="68"/>
+      <c r="CO64" s="68"/>
+      <c r="CP64" s="68"/>
+      <c r="CQ64" s="68"/>
+      <c r="CR64" s="68"/>
+      <c r="CS64" s="68"/>
+      <c r="CT64" s="68"/>
+      <c r="CU64" s="68"/>
+      <c r="CV64" s="68"/>
+      <c r="CW64" s="68"/>
+      <c r="CX64" s="68"/>
+      <c r="CY64" s="68"/>
+      <c r="CZ64" s="68"/>
+      <c r="DA64" s="68"/>
+      <c r="DB64" s="68"/>
+      <c r="DC64" s="68"/>
+      <c r="DD64" s="68"/>
+      <c r="DE64" s="68"/>
+      <c r="DF64" s="68"/>
+      <c r="DG64" s="68"/>
+      <c r="DH64" s="69"/>
+      <c r="DI64" s="49"/>
       <c r="DJ64" s="49"/>
       <c r="DK64" s="49"/>
       <c r="DL64" s="49"/>
@@ -37394,8 +39331,149 @@
       <c r="DO64" s="49"/>
       <c r="DP64" s="49"/>
       <c r="DQ64" s="49"/>
+      <c r="DR64" s="49"/>
+      <c r="DS64" s="49"/>
+      <c r="DT64" s="49"/>
+      <c r="DU64" s="49"/>
+      <c r="DV64" s="49"/>
+      <c r="DW64" s="49"/>
+      <c r="DX64" s="49"/>
+      <c r="DY64" s="49"/>
+      <c r="DZ64" s="49"/>
+      <c r="EA64" s="49"/>
+      <c r="EB64" s="49"/>
+      <c r="EC64" s="49"/>
+      <c r="ED64" s="49"/>
+      <c r="EE64" s="49"/>
+      <c r="EF64" s="49"/>
+      <c r="EG64" s="49"/>
+      <c r="EH64" s="49"/>
+      <c r="EI64" s="49"/>
+      <c r="EJ64" s="49"/>
+      <c r="EK64" s="49"/>
+      <c r="EL64" s="49"/>
+      <c r="EM64" s="49"/>
+      <c r="EN64" s="49"/>
+      <c r="EO64" s="49"/>
+      <c r="EP64" s="48"/>
+      <c r="EQ64" s="48"/>
+      <c r="ER64" s="48"/>
+      <c r="ES64" s="48"/>
+      <c r="ET64" s="48"/>
+      <c r="EU64" s="48"/>
     </row>
-    <row r="65" spans="114:121" x14ac:dyDescent="0.9">
+    <row r="65" spans="2:151" s="47" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.9">
+      <c r="B65" s="63"/>
+      <c r="D65" s="70"/>
+      <c r="E65" s="71"/>
+      <c r="F65" s="71"/>
+      <c r="G65" s="71"/>
+      <c r="H65" s="71"/>
+      <c r="I65" s="71"/>
+      <c r="J65" s="71"/>
+      <c r="K65" s="71"/>
+      <c r="L65" s="71"/>
+      <c r="M65" s="71"/>
+      <c r="N65" s="71"/>
+      <c r="O65" s="71"/>
+      <c r="P65" s="71"/>
+      <c r="Q65" s="71"/>
+      <c r="R65" s="71"/>
+      <c r="S65" s="71"/>
+      <c r="T65" s="71"/>
+      <c r="U65" s="71"/>
+      <c r="V65" s="71"/>
+      <c r="W65" s="71"/>
+      <c r="X65" s="71"/>
+      <c r="Y65" s="71"/>
+      <c r="Z65" s="71"/>
+      <c r="AA65" s="71"/>
+      <c r="AB65" s="71"/>
+      <c r="AC65" s="71"/>
+      <c r="AD65" s="71"/>
+      <c r="AE65" s="71"/>
+      <c r="AF65" s="71"/>
+      <c r="AG65" s="71"/>
+      <c r="AH65" s="71"/>
+      <c r="AI65" s="71"/>
+      <c r="AJ65" s="71"/>
+      <c r="AK65" s="71"/>
+      <c r="AL65" s="71"/>
+      <c r="AM65" s="71"/>
+      <c r="AN65" s="71"/>
+      <c r="AO65" s="71"/>
+      <c r="AP65" s="71"/>
+      <c r="AQ65" s="71"/>
+      <c r="AR65" s="71"/>
+      <c r="AS65" s="71"/>
+      <c r="AT65" s="71"/>
+      <c r="AU65" s="71"/>
+      <c r="AV65" s="71"/>
+      <c r="AW65" s="71"/>
+      <c r="AX65" s="71"/>
+      <c r="AY65" s="71"/>
+      <c r="AZ65" s="71"/>
+      <c r="BA65" s="71"/>
+      <c r="BB65" s="71"/>
+      <c r="BC65" s="71"/>
+      <c r="BD65" s="29"/>
+      <c r="BE65" s="71"/>
+      <c r="BF65" s="71"/>
+      <c r="BG65" s="71"/>
+      <c r="BH65" s="71"/>
+      <c r="BI65" s="71"/>
+      <c r="BJ65" s="71"/>
+      <c r="BK65" s="71"/>
+      <c r="BL65" s="71"/>
+      <c r="BM65" s="71"/>
+      <c r="BN65" s="71"/>
+      <c r="BO65" s="71"/>
+      <c r="BP65" s="71"/>
+      <c r="BQ65" s="71"/>
+      <c r="BR65" s="71"/>
+      <c r="BS65" s="71"/>
+      <c r="BT65" s="71"/>
+      <c r="BU65" s="71"/>
+      <c r="BV65" s="71"/>
+      <c r="BW65" s="71"/>
+      <c r="BX65" s="71"/>
+      <c r="BY65" s="71"/>
+      <c r="BZ65" s="71"/>
+      <c r="CA65" s="71"/>
+      <c r="CB65" s="71"/>
+      <c r="CC65" s="71"/>
+      <c r="CD65" s="71"/>
+      <c r="CE65" s="71"/>
+      <c r="CF65" s="71"/>
+      <c r="CG65" s="71"/>
+      <c r="CH65" s="71"/>
+      <c r="CI65" s="71"/>
+      <c r="CJ65" s="71"/>
+      <c r="CK65" s="71"/>
+      <c r="CL65" s="71"/>
+      <c r="CM65" s="71"/>
+      <c r="CN65" s="71"/>
+      <c r="CO65" s="71"/>
+      <c r="CP65" s="71"/>
+      <c r="CQ65" s="71"/>
+      <c r="CR65" s="71"/>
+      <c r="CS65" s="71"/>
+      <c r="CT65" s="71"/>
+      <c r="CU65" s="71"/>
+      <c r="CV65" s="71"/>
+      <c r="CW65" s="71"/>
+      <c r="CX65" s="71"/>
+      <c r="CY65" s="71"/>
+      <c r="CZ65" s="71"/>
+      <c r="DA65" s="71"/>
+      <c r="DB65" s="71"/>
+      <c r="DC65" s="71"/>
+      <c r="DD65" s="71"/>
+      <c r="DE65" s="71"/>
+      <c r="DF65" s="71"/>
+      <c r="DG65" s="71"/>
+      <c r="DH65" s="72"/>
+      <c r="DI65" s="51"/>
       <c r="DJ65" s="51"/>
       <c r="DK65" s="51"/>
       <c r="DL65" s="51"/>
@@ -37404,6 +39482,66 @@
       <c r="DO65" s="51"/>
       <c r="DP65" s="51"/>
       <c r="DQ65" s="51"/>
+      <c r="DR65" s="51"/>
+      <c r="DS65" s="51"/>
+      <c r="DT65" s="51"/>
+      <c r="DU65" s="51"/>
+      <c r="DV65" s="51"/>
+      <c r="DW65" s="51"/>
+      <c r="DX65" s="51"/>
+      <c r="DY65" s="51"/>
+      <c r="DZ65" s="51"/>
+      <c r="EA65" s="51"/>
+      <c r="EB65" s="51"/>
+      <c r="EC65" s="51"/>
+      <c r="ED65" s="51"/>
+      <c r="EE65" s="51"/>
+      <c r="EF65" s="51"/>
+      <c r="EG65" s="51"/>
+      <c r="EH65" s="51"/>
+      <c r="EI65" s="51"/>
+      <c r="EJ65" s="51"/>
+      <c r="EK65" s="51"/>
+      <c r="EL65" s="51"/>
+      <c r="EM65" s="51"/>
+      <c r="EN65" s="51"/>
+      <c r="EO65" s="51"/>
+      <c r="EP65" s="48"/>
+      <c r="EQ65" s="48"/>
+      <c r="ER65" s="48"/>
+      <c r="ES65" s="48"/>
+      <c r="ET65" s="48"/>
+      <c r="EU65" s="48"/>
+    </row>
+    <row r="66" spans="2:151" x14ac:dyDescent="0.9">
+      <c r="DJ66" s="50"/>
+      <c r="DK66" s="50"/>
+      <c r="DL66" s="50"/>
+      <c r="DM66" s="50"/>
+      <c r="DN66" s="50"/>
+      <c r="DO66" s="50"/>
+      <c r="DP66" s="50"/>
+      <c r="DQ66" s="50"/>
+    </row>
+    <row r="67" spans="2:151" x14ac:dyDescent="0.9">
+      <c r="DJ67" s="49"/>
+      <c r="DK67" s="49"/>
+      <c r="DL67" s="49"/>
+      <c r="DM67" s="49"/>
+      <c r="DN67" s="49"/>
+      <c r="DO67" s="49"/>
+      <c r="DP67" s="49"/>
+      <c r="DQ67" s="49"/>
+    </row>
+    <row r="68" spans="2:151" x14ac:dyDescent="0.9">
+      <c r="DJ68" s="51"/>
+      <c r="DK68" s="51"/>
+      <c r="DL68" s="51"/>
+      <c r="DM68" s="51"/>
+      <c r="DN68" s="51"/>
+      <c r="DO68" s="51"/>
+      <c r="DP68" s="51"/>
+      <c r="DQ68" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -37412,158 +39550,379 @@
     <mergeCell ref="DJ28:DK28"/>
     <mergeCell ref="DP30:DQ30"/>
     <mergeCell ref="DM34:DN34"/>
-    <mergeCell ref="BD61:BD62"/>
-    <mergeCell ref="BF61:BH61"/>
-    <mergeCell ref="BL55:BL56"/>
-    <mergeCell ref="BN55:BP55"/>
-    <mergeCell ref="CT55:CV56"/>
-    <mergeCell ref="CX55:CZ55"/>
-    <mergeCell ref="CB55:CB56"/>
-    <mergeCell ref="CD55:CF55"/>
-    <mergeCell ref="X58:X59"/>
+    <mergeCell ref="BD64:BD65"/>
+    <mergeCell ref="BF64:BH64"/>
+    <mergeCell ref="BL58:BL59"/>
+    <mergeCell ref="BN58:BP58"/>
+    <mergeCell ref="CT58:CV59"/>
+    <mergeCell ref="CX58:CZ58"/>
+    <mergeCell ref="CB58:CB59"/>
+    <mergeCell ref="CD58:CF58"/>
+    <mergeCell ref="X61:X62"/>
+    <mergeCell ref="Z61:AB61"/>
+    <mergeCell ref="BZ61:BZ62"/>
+    <mergeCell ref="CB61:CD61"/>
+    <mergeCell ref="I58:L59"/>
+    <mergeCell ref="V58:X59"/>
     <mergeCell ref="Z58:AB58"/>
-    <mergeCell ref="BZ58:BZ59"/>
-    <mergeCell ref="CB58:CD58"/>
-    <mergeCell ref="I55:L56"/>
-    <mergeCell ref="V55:X56"/>
-    <mergeCell ref="Z55:AB55"/>
-    <mergeCell ref="AP55:AT56"/>
-    <mergeCell ref="AV55:AX55"/>
+    <mergeCell ref="AP58:AT59"/>
+    <mergeCell ref="AV58:AX58"/>
     <mergeCell ref="CZ2:DB2"/>
   </mergeCells>
-  <conditionalFormatting sqref="CQ36:DC53">
-    <cfRule type="cellIs" dxfId="71" priority="67" operator="equal">
+  <conditionalFormatting sqref="CQ36:DC52 CQ56:DC56">
+    <cfRule type="cellIs" dxfId="156" priority="167" operator="equal">
       <formula>1.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF3:CO3 A3:C3 G3:M3 Q3:AA3 AE3:AL3 AP3:BA3 A1:DI2 CS3:DI3 DX32:XFD32 DR32:DV32 A4:DI1048576 DR33:XFD1048576 DR1:XFD31">
-    <cfRule type="cellIs" dxfId="70" priority="62" operator="equal">
+  <conditionalFormatting sqref="BF3:CO3 A3:C3 G3:M3 Q3:AA3 AE3:AL3 AP3:BA3 A1:DI2 CS3:DI3 DX32:XFD32 DR32:DV32 DR33:XFD52 DR1:XFD31 A56:DI1048576 DR60:XFD1048576 A4:DI52 DJ56:XFD59">
+    <cfRule type="cellIs" dxfId="107" priority="162" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="63" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="155" priority="163" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="164" operator="equal">
       <formula>14.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="165" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="66" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="DQ5 DJ57:DQ1048576 DJ1:DQ4 DJ5:DO5">
-    <cfRule type="cellIs" dxfId="35" priority="31" operator="equal">
-      <formula>15</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="32" operator="containsText" text="x">
-      <formula>NOT(ISERROR(SEARCH("x",DJ1)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
-      <formula>14.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
-      <formula>14</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="35" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="36" operator="equal">
-      <formula>1.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="DN12:DQ12 DL46:DQ46 DJ9:DO10 DJ28 DJ47:DQ53 DJ46 DN28:DP28 DP36:DQ36 DJ36:DM36 DJ29:DQ29 DJ31:DQ35 DJ30:DP30 DJ56:DO56 DJ54:DL54 DO54 DJ55:DK55 DL11:DO11 DJ11:DK12 DL8:DO8 DJ7:DK8 DP7:DQ11 DJ37:DQ45 DJ13:DQ27">
-    <cfRule type="cellIs" dxfId="29" priority="26" operator="equal">
-      <formula>15</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="27" operator="containsText" text="x">
-      <formula>NOT(ISERROR(SEARCH("x",DJ7)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
-      <formula>14.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
-      <formula>14</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="30" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="DL55 DO55">
-    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
-      <formula>15</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="x">
-      <formula>NOT(ISERROR(SEARCH("x",DL55)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
-      <formula>14.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
-      <formula>14</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="DM54:DN55">
-    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
-      <formula>15</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="x">
-      <formula>NOT(ISERROR(SEARCH("x",DM54)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
-      <formula>14.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
-      <formula>14</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="DP54:DQ55">
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
-      <formula>15</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="x">
-      <formula>NOT(ISERROR(SEARCH("x",DP54)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
-      <formula>14.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
-      <formula>14</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="DP56:DQ56">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
-      <formula>15</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="x">
-      <formula>NOT(ISERROR(SEARCH("x",DP56)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
-      <formula>14.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="14" operator="equal">
-      <formula>14</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="166" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DJ6:DQ6 DL7:DO7">
+    <cfRule type="cellIs" dxfId="151" priority="101" operator="equal">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="150" priority="102" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",DJ6)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="103" operator="equal">
+      <formula>14.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="104" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="105" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DQ5 DJ60:DQ1048576 DJ1:DQ4 DJ5:DO5">
+    <cfRule type="cellIs" dxfId="146" priority="131" operator="equal">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="145" priority="132" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",DJ1)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="133" operator="equal">
+      <formula>14.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="143" priority="134" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="135" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="136" operator="equal">
+      <formula>1.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DN12:DQ12 DL46:DQ46 DJ9:DO10 DJ28 DJ47:DQ51 DJ46 DN28:DP28 DP36:DQ36 DJ36:DM36 DJ29:DQ29 DJ31:DQ35 DJ30:DP30 DL11:DO11 DJ11:DK12 DL8:DO8 DJ7:DK8 DP7:DQ11 DJ37:DQ45 DJ13:DQ27 DJ52:DL52 DO52">
+    <cfRule type="cellIs" dxfId="140" priority="126" operator="equal">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="139" priority="127" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",DJ7)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="128" operator="equal">
+      <formula>14.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="129" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="130" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DL53 A53:DI53 DO53 DR53:XFD53">
+    <cfRule type="cellIs" dxfId="135" priority="90" operator="equal">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="134" priority="91" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",A53)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="92" operator="equal">
+      <formula>14.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="93" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="131" priority="94" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="95" operator="equal">
+      <formula>1.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DJ53">
+    <cfRule type="cellIs" dxfId="129" priority="85" operator="equal">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="128" priority="86" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",DJ53)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="87" operator="equal">
+      <formula>14.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="88" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="89" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DK53">
+    <cfRule type="cellIs" dxfId="124" priority="69" operator="equal">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="123" priority="70" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",DK53)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="71" operator="equal">
+      <formula>14.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="72" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="73" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="119" priority="74" operator="equal">
+      <formula>1.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CQ54:DC55">
+    <cfRule type="cellIs" dxfId="118" priority="68" operator="equal">
+      <formula>1.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DR54:XFD55 A54:DI55">
+    <cfRule type="cellIs" dxfId="117" priority="63" operator="equal">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="116" priority="64" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",A54)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="65" operator="equal">
+      <formula>14.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="66" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="67" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DJ54:DL54 DL55 DO54:DO55">
+    <cfRule type="cellIs" dxfId="112" priority="58" operator="equal">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="111" priority="59" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",DJ54)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="60" operator="equal">
+      <formula>14.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="61" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="62" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DJ55:DK55">
+    <cfRule type="cellIs" dxfId="56" priority="53" operator="equal">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="55" priority="54" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",DJ55)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="55" operator="equal">
+      <formula>14.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="56" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="57" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DM52:DN52">
+    <cfRule type="cellIs" dxfId="51" priority="48" operator="equal">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="49" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",DM52)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
+      <formula>14.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="51" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="52" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DM53">
+    <cfRule type="cellIs" dxfId="46" priority="43" operator="equal">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="44" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",DM53)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
+      <formula>14.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="46" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="47" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DN53">
+    <cfRule type="cellIs" dxfId="41" priority="37" operator="equal">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="38" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",DN53)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
+      <formula>14.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="41" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="42" operator="equal">
+      <formula>1.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DM54:DN54">
+    <cfRule type="cellIs" dxfId="35" priority="32" operator="equal">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="33" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",DM54)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
+      <formula>14.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="36" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DM55:DN55">
+    <cfRule type="cellIs" dxfId="30" priority="27" operator="equal">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",DM55)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+      <formula>14.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="31" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DP52:DQ52">
+    <cfRule type="cellIs" dxfId="25" priority="22" operator="equal">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",DP52)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+      <formula>14.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="26" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DP53">
+    <cfRule type="cellIs" dxfId="20" priority="17" operator="equal">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="18" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",DP53)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+      <formula>14.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="21" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DQ53">
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="12" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",DQ53)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+      <formula>14.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
+      <formula>1.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DP54:DQ54">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",DP54)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>14.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DP55:DQ55">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>15</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="x">
-      <formula>NOT(ISERROR(SEARCH("x",DJ6)))</formula>
+      <formula>NOT(ISERROR(SEARCH("x",DP55)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>14.5</formula>

--- a/Entrega 01/largos.xlsx
+++ b/Entrega 01/largos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDA8D59-37A6-43F0-BDBF-2EDB29FBD31C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1F3496-E51B-4F38-934D-A1A11E00F739}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21920,8 +21920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123CC5CF-3BD0-45D4-9459-2C74309992F4}">
   <dimension ref="B2:EU68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y7" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="DW44" sqref="DW44"/>
+    <sheetView tabSelected="1" topLeftCell="BG28" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="DT15" sqref="DT15:DT16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="61.5" x14ac:dyDescent="0.9"/>
@@ -26100,6 +26100,58 @@
         <f>Sheet1!$D$5</f>
         <v>1</v>
       </c>
+      <c r="BE15" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="BF15" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="BG15" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="BH15" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="BI15" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="BJ15" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="BK15" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="BL15" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="BM15" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="BN15" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="BO15" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="BP15" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="BQ15" s="1">
+        <f>Sheet1!$D$5</f>
+        <v>1</v>
+      </c>
       <c r="BR15" s="1">
         <f>Sheet1!$D$5</f>
         <v>1</v>
@@ -30713,7 +30765,7 @@
       <c r="DJ34" s="66"/>
       <c r="DK34" s="65"/>
       <c r="DM34" s="83">
-        <f>COUNTIF(DD16:DD58,Sheet1!$D$5)*Sheet1!$D$5+COUNTIF(DD16:DD58,14)*Sheet1!$D$3+COUNTIF(DD16:DD58,14.5)*Sheet1!$D$3</f>
+        <f>COUNTIF(BR16:BR55,Sheet1!$D$5)*Sheet1!$D$5+COUNTIF(BR16:BR55,14)*Sheet1!$D$3+COUNTIF(BR16:BR55,14.5)*Sheet1!$D$3</f>
         <v>208</v>
       </c>
       <c r="DN34" s="84"/>
@@ -38836,8 +38888,8 @@
         <v>46</v>
       </c>
       <c r="CB61" s="73">
-        <f>SUM(AT8:DH8)</f>
-        <v>509</v>
+        <f>SUM(AS8:DH8)</f>
+        <v>510</v>
       </c>
       <c r="CC61" s="73"/>
       <c r="CD61" s="73"/>
@@ -39574,7 +39626,7 @@
       <formula>1.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF3:CO3 A3:C3 G3:M3 Q3:AA3 AE3:AL3 AP3:BA3 A1:DI2 CS3:DI3 DX32:XFD32 DR32:DV32 DR33:XFD52 DR1:XFD31 A56:DI1048576 DR60:XFD1048576 A4:DI52 DJ56:XFD59">
+  <conditionalFormatting sqref="BF3:CO3 A3:C3 G3:M3 Q3:AA3 AE3:AL3 AP3:BA3 A1:DI2 CS3:DI3 DX32:XFD32 DR32:DV32 DR33:XFD52 DR1:XFD31 A56:DI1048576 DR60:XFD1048576 DJ56:XFD59 A4:DI52">
     <cfRule type="cellIs" dxfId="107" priority="162" operator="equal">
       <formula>15</formula>
     </cfRule>
